--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_15_16.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_15_16.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-146950.6954880515</v>
+        <v>-149834.0845719261</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12399193.71967495</v>
+        <v>12389648.49777086</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673446</v>
+        <v>603248.4937673419</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>12661430.54744488</v>
+        <v>12663823.94532212</v>
       </c>
     </row>
     <row r="11">
@@ -659,7 +659,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>6.056421089299432</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -704,28 +704,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="n">
         <v>6.876045741711437</v>
       </c>
-      <c r="S2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0</v>
-      </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>6.056421089299432</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -750,13 +750,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>6.056421089299432</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>6.056421089299432</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -795,10 +795,10 @@
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -814,10 +814,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>6.056421089299432</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -859,16 +859,16 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="S4" t="n">
-        <v>6.056421089299432</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -902,13 +902,13 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>55.47802368145955</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>55.47802368145955</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>55.47802368145955</v>
+        <v>13.8919914206772</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -944,13 +944,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>36.99361326575547</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>36.99361326575547</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>11.8159374020888</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -959,10 +959,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>48.86504325862956</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>36.99361326575547</v>
       </c>
     </row>
     <row r="6">
@@ -981,10 +981,10 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>55.47802368145955</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>55.47802368145955</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -1020,10 +1020,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.81176472269735</v>
+        <v>32.58397456447742</v>
       </c>
       <c r="S6" t="n">
-        <v>54.53130221739175</v>
+        <v>36.99361326575547</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
@@ -1035,13 +1035,13 @@
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>36.99361326575547</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>36.99361326575547</v>
       </c>
     </row>
     <row r="7">
@@ -1060,7 +1060,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>29.81072265728303</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1075,7 +1075,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.29592884233745</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1096,28 +1096,28 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.23641544046863</v>
+        <v>33.17265651123944</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>36.40493131899344</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>55.47802368145955</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>36.99361326575547</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>36.99361326575547</v>
       </c>
       <c r="X7" t="n">
-        <v>55.47802368145955</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1136,7 +1136,7 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1178,28 +1178,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>11.36529914368131</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
       <c r="U8" t="n">
+        <v>145.1986582043251</v>
+      </c>
+      <c r="V8" t="n">
         <v>187.52558716632</v>
       </c>
-      <c r="V8" t="n">
-        <v>0</v>
-      </c>
       <c r="W8" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>133.8333590606439</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1209,28 +1209,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>136.1637893657753</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>92.64733914034922</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>48.77881175550657</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1272,13 +1272,13 @@
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>186.1649406925473</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
     </row>
     <row r="10">
@@ -1288,22 +1288,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>116.9337976107819</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.0019352027142</v>
+        <v>20.9075889684192</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1342,7 +1342,7 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1357,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
     </row>
     <row r="11">
@@ -1367,22 +1367,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>136.389689575542</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>201.873158952426</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>294.6077643873205</v>
@@ -1436,7 +1436,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>134.4415385849332</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1591,7 +1591,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>134.4415385849327</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1610,22 +1610,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>31.11967530129181</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>191.8530400190114</v>
+        <v>410.3830660152001</v>
       </c>
       <c r="H14" t="n">
-        <v>291.1875290111436</v>
+        <v>289.0912163670588</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>20.8102540691655</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,13 +1655,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>101.5774980376932</v>
+        <v>96.91305528147871</v>
       </c>
       <c r="T14" t="n">
-        <v>202.4560313763623</v>
+        <v>201.5599875731663</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9684546314181</v>
+        <v>250.9520791878417</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1673,7 +1673,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1698,13 +1698,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>134.8207812850185</v>
+        <v>134.711260850769</v>
       </c>
       <c r="H15" t="n">
-        <v>87.87112667606195</v>
+        <v>86.81338985054747</v>
       </c>
       <c r="I15" t="n">
-        <v>12.66502629908679</v>
+        <v>8.894256961989257</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1734,13 +1734,13 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>124.8244586295235</v>
+        <v>122.790164598618</v>
       </c>
       <c r="T15" t="n">
-        <v>189.9963327647402</v>
+        <v>189.5548885582698</v>
       </c>
       <c r="U15" t="n">
-        <v>225.7754126153043</v>
+        <v>225.7682073235773</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
@@ -1762,13 +1762,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>158.4022165806539</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1777,7 +1777,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.876002342373</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1810,16 +1810,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>78.06785136698656</v>
       </c>
       <c r="S16" t="n">
-        <v>187.1583167657329</v>
+        <v>185.5581750285775</v>
       </c>
       <c r="T16" t="n">
-        <v>218.9088694504607</v>
+        <v>218.5165550965415</v>
       </c>
       <c r="U16" t="n">
-        <v>104.3857619116964</v>
+        <v>286.1986587054474</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1841,25 +1841,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>351.1236393112667</v>
+        <v>364.7052674398273</v>
       </c>
       <c r="C17" t="n">
-        <v>333.6626894187937</v>
+        <v>347.2443175473542</v>
       </c>
       <c r="D17" t="n">
-        <v>323.0728392684691</v>
+        <v>336.6544673970296</v>
       </c>
       <c r="E17" t="n">
-        <v>350.3201677200479</v>
+        <v>363.9017958486085</v>
       </c>
       <c r="F17" t="n">
-        <v>375.2658433894975</v>
+        <v>198.7046777182092</v>
       </c>
       <c r="G17" t="n">
-        <v>378.5542040247498</v>
+        <v>392.1358321533104</v>
       </c>
       <c r="H17" t="n">
-        <v>255.2416659947559</v>
+        <v>268.8232941233165</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,25 +1892,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>60.32014642295178</v>
+        <v>73.9017745515124</v>
       </c>
       <c r="T17" t="n">
-        <v>168.9926026545724</v>
+        <v>182.574230783133</v>
       </c>
       <c r="U17" t="n">
-        <v>219.3243840645689</v>
+        <v>232.9060121931295</v>
       </c>
       <c r="V17" t="n">
-        <v>296.142056117921</v>
+        <v>309.7236842464816</v>
       </c>
       <c r="W17" t="n">
-        <v>317.6307663651991</v>
+        <v>331.2123944937597</v>
       </c>
       <c r="X17" t="n">
-        <v>338.1208983262551</v>
+        <v>351.7025264548157</v>
       </c>
       <c r="Y17" t="n">
-        <v>354.6277363038397</v>
+        <v>368.2093644324003</v>
       </c>
     </row>
     <row r="18">
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>148.2217778297234</v>
+        <v>161.803405958284</v>
       </c>
       <c r="C19" t="n">
-        <v>135.6366187464139</v>
+        <v>149.2182468749745</v>
       </c>
       <c r="D19" t="n">
-        <v>117.0052706659984</v>
+        <v>130.5868987945591</v>
       </c>
       <c r="E19" t="n">
-        <v>114.8237602943553</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>113.8108456707173</v>
+        <v>127.3924737992779</v>
       </c>
       <c r="G19" t="n">
-        <v>134.0758985510282</v>
+        <v>144.0800882110675</v>
       </c>
       <c r="H19" t="n">
-        <v>110.1245053442997</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>54.52629139453015</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,28 +2047,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>42.04747230221579</v>
+        <v>55.62910043077642</v>
       </c>
       <c r="S19" t="n">
-        <v>152.2386502424833</v>
+        <v>165.820278371044</v>
       </c>
       <c r="T19" t="n">
-        <v>186.4872700401421</v>
+        <v>200.0688981687027</v>
       </c>
       <c r="U19" t="n">
-        <v>254.5831063612652</v>
+        <v>268.1647344898258</v>
       </c>
       <c r="V19" t="n">
-        <v>220.5274409716141</v>
+        <v>234.1090691001747</v>
       </c>
       <c r="W19" t="n">
-        <v>254.9127959843771</v>
+        <v>268.4944241129377</v>
       </c>
       <c r="X19" t="n">
-        <v>194.0994530368232</v>
+        <v>207.6810811653839</v>
       </c>
       <c r="Y19" t="n">
-        <v>186.9744509998809</v>
+        <v>200.5560791284415</v>
       </c>
     </row>
     <row r="20">
@@ -2081,16 +2081,16 @@
         <v>351.1236393112666</v>
       </c>
       <c r="C20" t="n">
-        <v>333.6626894187936</v>
+        <v>333.6626894187937</v>
       </c>
       <c r="D20" t="n">
-        <v>323.0728392684699</v>
+        <v>323.072839268469</v>
       </c>
       <c r="E20" t="n">
         <v>350.3201677200478</v>
       </c>
       <c r="F20" t="n">
-        <v>375.2658433894975</v>
+        <v>375.2658433894979</v>
       </c>
       <c r="G20" t="n">
         <v>378.5542040247498</v>
@@ -2129,13 +2129,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>60.32014642295176</v>
+        <v>60.32014642295178</v>
       </c>
       <c r="T20" t="n">
         <v>168.9926026545724</v>
       </c>
       <c r="U20" t="n">
-        <v>219.3243840645688</v>
+        <v>219.3243840645689</v>
       </c>
       <c r="V20" t="n">
         <v>296.142056117921</v>
@@ -2147,7 +2147,7 @@
         <v>338.1208983262551</v>
       </c>
       <c r="Y20" t="n">
-        <v>354.6277363038396</v>
+        <v>354.6277363038397</v>
       </c>
     </row>
     <row r="21">
@@ -2242,10 +2242,10 @@
         <v>135.6366187464139</v>
       </c>
       <c r="D22" t="n">
-        <v>117.0052706659989</v>
+        <v>117.0052706659984</v>
       </c>
       <c r="E22" t="n">
-        <v>114.8237602943552</v>
+        <v>114.8237602943553</v>
       </c>
       <c r="F22" t="n">
         <v>113.8108456707173</v>
@@ -2254,10 +2254,10 @@
         <v>134.0758985510282</v>
       </c>
       <c r="H22" t="n">
-        <v>110.1245053442997</v>
+        <v>110.1245053442992</v>
       </c>
       <c r="I22" t="n">
-        <v>54.52629139453013</v>
+        <v>54.52629139453015</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,13 +2284,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>42.04747230221577</v>
+        <v>42.04747230221579</v>
       </c>
       <c r="S22" t="n">
         <v>152.2386502424833</v>
       </c>
       <c r="T22" t="n">
-        <v>186.487270040142</v>
+        <v>186.4872700401421</v>
       </c>
       <c r="U22" t="n">
         <v>254.5831063612652</v>
@@ -2305,7 +2305,7 @@
         <v>194.0994530368232</v>
       </c>
       <c r="Y22" t="n">
-        <v>186.9744509998808</v>
+        <v>186.9744509998809</v>
       </c>
     </row>
     <row r="23">
@@ -2318,7 +2318,7 @@
         <v>351.1236393112666</v>
       </c>
       <c r="C23" t="n">
-        <v>333.6626894187936</v>
+        <v>333.6626894187937</v>
       </c>
       <c r="D23" t="n">
         <v>323.072839268469</v>
@@ -2366,13 +2366,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>60.32014642295176</v>
+        <v>60.32014642295178</v>
       </c>
       <c r="T23" t="n">
         <v>168.9926026545724</v>
       </c>
       <c r="U23" t="n">
-        <v>219.3243840645688</v>
+        <v>219.3243840645689</v>
       </c>
       <c r="V23" t="n">
         <v>296.142056117921</v>
@@ -2384,7 +2384,7 @@
         <v>338.1208983262551</v>
       </c>
       <c r="Y23" t="n">
-        <v>354.6277363038396</v>
+        <v>354.6277363038397</v>
       </c>
     </row>
     <row r="24">
@@ -2482,7 +2482,7 @@
         <v>117.0052706659984</v>
       </c>
       <c r="E25" t="n">
-        <v>114.8237602943552</v>
+        <v>114.8237602943553</v>
       </c>
       <c r="F25" t="n">
         <v>113.8108456707173</v>
@@ -2491,10 +2491,10 @@
         <v>134.0758985510282</v>
       </c>
       <c r="H25" t="n">
-        <v>110.1245053442997</v>
+        <v>110.1245053442996</v>
       </c>
       <c r="I25" t="n">
-        <v>54.52629139453013</v>
+        <v>54.52629139453015</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,13 +2521,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>42.04747230221577</v>
+        <v>42.04747230221579</v>
       </c>
       <c r="S25" t="n">
         <v>152.2386502424833</v>
       </c>
       <c r="T25" t="n">
-        <v>186.487270040142</v>
+        <v>186.4872700401421</v>
       </c>
       <c r="U25" t="n">
         <v>254.5831063612652</v>
@@ -2542,7 +2542,7 @@
         <v>194.0994530368232</v>
       </c>
       <c r="Y25" t="n">
-        <v>186.9744509998808</v>
+        <v>186.9744509998809</v>
       </c>
     </row>
     <row r="26">
@@ -2555,7 +2555,7 @@
         <v>351.1236393112666</v>
       </c>
       <c r="C26" t="n">
-        <v>333.6626894187936</v>
+        <v>333.6626894187937</v>
       </c>
       <c r="D26" t="n">
         <v>323.072839268469</v>
@@ -2603,13 +2603,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>60.32014642295176</v>
+        <v>60.32014642295178</v>
       </c>
       <c r="T26" t="n">
         <v>168.9926026545724</v>
       </c>
       <c r="U26" t="n">
-        <v>219.3243840645688</v>
+        <v>219.3243840645689</v>
       </c>
       <c r="V26" t="n">
         <v>296.142056117921</v>
@@ -2621,7 +2621,7 @@
         <v>338.1208983262551</v>
       </c>
       <c r="Y26" t="n">
-        <v>354.6277363038396</v>
+        <v>354.6277363038397</v>
       </c>
     </row>
     <row r="27">
@@ -2719,19 +2719,19 @@
         <v>117.0052706659984</v>
       </c>
       <c r="E28" t="n">
-        <v>114.8237602943552</v>
+        <v>114.8237602943553</v>
       </c>
       <c r="F28" t="n">
-        <v>113.8108456707182</v>
+        <v>113.8108456707173</v>
       </c>
       <c r="G28" t="n">
         <v>134.0758985510282</v>
       </c>
       <c r="H28" t="n">
-        <v>110.1245053442997</v>
+        <v>110.1245053442996</v>
       </c>
       <c r="I28" t="n">
-        <v>54.52629139453013</v>
+        <v>54.52629139453015</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>42.04747230221577</v>
+        <v>42.04747230221579</v>
       </c>
       <c r="S28" t="n">
         <v>152.2386502424833</v>
       </c>
       <c r="T28" t="n">
-        <v>186.487270040142</v>
+        <v>186.4872700401421</v>
       </c>
       <c r="U28" t="n">
         <v>254.5831063612652</v>
@@ -2779,7 +2779,7 @@
         <v>194.0994530368232</v>
       </c>
       <c r="Y28" t="n">
-        <v>186.9744509998808</v>
+        <v>186.9744509998809</v>
       </c>
     </row>
     <row r="29">
@@ -2792,7 +2792,7 @@
         <v>351.1236393112666</v>
       </c>
       <c r="C29" t="n">
-        <v>333.6626894187936</v>
+        <v>333.6626894187937</v>
       </c>
       <c r="D29" t="n">
         <v>323.072839268469</v>
@@ -2840,13 +2840,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>60.32014642295176</v>
+        <v>60.32014642295178</v>
       </c>
       <c r="T29" t="n">
         <v>168.9926026545724</v>
       </c>
       <c r="U29" t="n">
-        <v>219.3243840645688</v>
+        <v>219.3243840645689</v>
       </c>
       <c r="V29" t="n">
         <v>296.142056117921</v>
@@ -2858,7 +2858,7 @@
         <v>338.1208983262551</v>
       </c>
       <c r="Y29" t="n">
-        <v>354.6277363038396</v>
+        <v>354.6277363038397</v>
       </c>
     </row>
     <row r="30">
@@ -2956,7 +2956,7 @@
         <v>117.0052706659984</v>
       </c>
       <c r="E31" t="n">
-        <v>114.8237602943552</v>
+        <v>114.8237602943553</v>
       </c>
       <c r="F31" t="n">
         <v>113.8108456707173</v>
@@ -2965,10 +2965,10 @@
         <v>134.0758985510282</v>
       </c>
       <c r="H31" t="n">
-        <v>110.1245053443003</v>
+        <v>110.1245053442996</v>
       </c>
       <c r="I31" t="n">
-        <v>54.52629139453013</v>
+        <v>54.52629139453015</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>42.04747230221577</v>
+        <v>42.04747230221579</v>
       </c>
       <c r="S31" t="n">
         <v>152.2386502424833</v>
       </c>
       <c r="T31" t="n">
-        <v>186.487270040142</v>
+        <v>186.4872700401421</v>
       </c>
       <c r="U31" t="n">
         <v>254.5831063612652</v>
@@ -3016,7 +3016,7 @@
         <v>194.0994530368232</v>
       </c>
       <c r="Y31" t="n">
-        <v>186.9744509998808</v>
+        <v>186.9744509998809</v>
       </c>
     </row>
     <row r="32">
@@ -3026,25 +3026,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>351.1236393112666</v>
+        <v>351.1236393112667</v>
       </c>
       <c r="C32" t="n">
-        <v>333.6626894187936</v>
+        <v>333.6626894187937</v>
       </c>
       <c r="D32" t="n">
-        <v>323.072839268469</v>
+        <v>323.0728392684691</v>
       </c>
       <c r="E32" t="n">
-        <v>350.3201677200478</v>
+        <v>350.3201677200479</v>
       </c>
       <c r="F32" t="n">
-        <v>375.2658433894975</v>
+        <v>375.2658433894976</v>
       </c>
       <c r="G32" t="n">
-        <v>378.5542040247498</v>
+        <v>378.5542040247499</v>
       </c>
       <c r="H32" t="n">
-        <v>255.2416659947559</v>
+        <v>255.241665994756</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>60.32014642295177</v>
+        <v>60.32014642295184</v>
       </c>
       <c r="T32" t="n">
         <v>168.9926026545724</v>
       </c>
       <c r="U32" t="n">
-        <v>219.3243840645688</v>
+        <v>219.3243840645689</v>
       </c>
       <c r="V32" t="n">
-        <v>296.142056117921</v>
+        <v>296.1420561179211</v>
       </c>
       <c r="W32" t="n">
-        <v>317.6307663651991</v>
+        <v>317.6307663651992</v>
       </c>
       <c r="X32" t="n">
-        <v>338.1208983262551</v>
+        <v>338.1208983262552</v>
       </c>
       <c r="Y32" t="n">
-        <v>354.6277363038396</v>
+        <v>354.6277363038398</v>
       </c>
     </row>
     <row r="33">
@@ -3187,25 +3187,25 @@
         <v>148.2217778297234</v>
       </c>
       <c r="C34" t="n">
-        <v>135.6366187464139</v>
+        <v>135.636618746414</v>
       </c>
       <c r="D34" t="n">
-        <v>117.0052706659984</v>
+        <v>117.0052706659985</v>
       </c>
       <c r="E34" t="n">
-        <v>114.8237602943552</v>
+        <v>114.8237602943553</v>
       </c>
       <c r="F34" t="n">
-        <v>113.8108456707173</v>
+        <v>113.8108456707174</v>
       </c>
       <c r="G34" t="n">
-        <v>134.0758985510282</v>
+        <v>134.0758985510283</v>
       </c>
       <c r="H34" t="n">
-        <v>110.1245053442997</v>
+        <v>110.1245053442998</v>
       </c>
       <c r="I34" t="n">
-        <v>54.52629139453013</v>
+        <v>54.52629139452841</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.04747230221578</v>
+        <v>42.04747230221585</v>
       </c>
       <c r="S34" t="n">
-        <v>152.2386502424833</v>
+        <v>152.2386502424834</v>
       </c>
       <c r="T34" t="n">
-        <v>186.487270040142</v>
+        <v>186.4872700401421</v>
       </c>
       <c r="U34" t="n">
         <v>254.5831063612652</v>
@@ -3250,10 +3250,10 @@
         <v>254.9127959843771</v>
       </c>
       <c r="X34" t="n">
-        <v>194.0994530368232</v>
+        <v>194.0994530368233</v>
       </c>
       <c r="Y34" t="n">
-        <v>186.9744509998808</v>
+        <v>186.9744509998809</v>
       </c>
     </row>
     <row r="35">
@@ -3263,16 +3263,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>351.1236393112666</v>
+        <v>351.1236393112667</v>
       </c>
       <c r="C35" t="n">
-        <v>333.6626894187936</v>
+        <v>333.6626894187937</v>
       </c>
       <c r="D35" t="n">
-        <v>323.072839268469</v>
+        <v>323.0728392684691</v>
       </c>
       <c r="E35" t="n">
-        <v>350.3201677200478</v>
+        <v>350.3201677200479</v>
       </c>
       <c r="F35" t="n">
         <v>375.2658433894975</v>
@@ -3314,13 +3314,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>60.32014642295177</v>
+        <v>60.32014642295178</v>
       </c>
       <c r="T35" t="n">
         <v>168.9926026545724</v>
       </c>
       <c r="U35" t="n">
-        <v>219.3243840645688</v>
+        <v>219.3243840645689</v>
       </c>
       <c r="V35" t="n">
         <v>296.142056117921</v>
@@ -3332,7 +3332,7 @@
         <v>338.1208983262551</v>
       </c>
       <c r="Y35" t="n">
-        <v>354.6277363038396</v>
+        <v>354.6277363038397</v>
       </c>
     </row>
     <row r="36">
@@ -3427,10 +3427,10 @@
         <v>135.6366187464139</v>
       </c>
       <c r="D37" t="n">
-        <v>117.0052706659984</v>
+        <v>117.0052706659985</v>
       </c>
       <c r="E37" t="n">
-        <v>114.8237602943552</v>
+        <v>114.8237602943553</v>
       </c>
       <c r="F37" t="n">
         <v>113.8108456707173</v>
@@ -3439,10 +3439,10 @@
         <v>134.0758985510282</v>
       </c>
       <c r="H37" t="n">
-        <v>110.1245053442997</v>
+        <v>110.1245053442993</v>
       </c>
       <c r="I37" t="n">
-        <v>54.52629139453013</v>
+        <v>54.52629139453016</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.04747230221578</v>
+        <v>42.04747230221579</v>
       </c>
       <c r="S37" t="n">
         <v>152.2386502424833</v>
       </c>
       <c r="T37" t="n">
-        <v>186.487270040142</v>
+        <v>186.4872700401421</v>
       </c>
       <c r="U37" t="n">
         <v>254.5831063612652</v>
@@ -3490,7 +3490,7 @@
         <v>194.0994530368232</v>
       </c>
       <c r="Y37" t="n">
-        <v>186.9744509998808</v>
+        <v>186.9744509998809</v>
       </c>
     </row>
     <row r="38">
@@ -3518,7 +3518,7 @@
         <v>378.5542040247498</v>
       </c>
       <c r="H38" t="n">
-        <v>255.241665994756</v>
+        <v>255.2416659947559</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,13 +3551,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>60.32014642295182</v>
+        <v>60.32014642295177</v>
       </c>
       <c r="T38" t="n">
         <v>168.9926026545724</v>
       </c>
       <c r="U38" t="n">
-        <v>219.3243840645689</v>
+        <v>219.3243840645704</v>
       </c>
       <c r="V38" t="n">
         <v>296.142056117921</v>
@@ -3600,7 +3600,7 @@
         <v>85.68348164116145</v>
       </c>
       <c r="I39" t="n">
-        <v>4.866200902188993</v>
+        <v>4.866200902188965</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3664,22 +3664,22 @@
         <v>135.6366187464139</v>
       </c>
       <c r="D40" t="n">
-        <v>117.0052706659985</v>
+        <v>117.0052706659984</v>
       </c>
       <c r="E40" t="n">
-        <v>114.8237602943536</v>
+        <v>114.8237602943553</v>
       </c>
       <c r="F40" t="n">
-        <v>113.8108456707174</v>
+        <v>113.8108456707173</v>
       </c>
       <c r="G40" t="n">
-        <v>134.0758985510283</v>
+        <v>134.0758985510282</v>
       </c>
       <c r="H40" t="n">
-        <v>110.1245053442998</v>
+        <v>110.1245053442997</v>
       </c>
       <c r="I40" t="n">
-        <v>54.52629139453019</v>
+        <v>54.52629139453013</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,10 +3706,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.04747230221584</v>
+        <v>42.04747230221578</v>
       </c>
       <c r="S40" t="n">
-        <v>152.2386502424834</v>
+        <v>152.2386502424833</v>
       </c>
       <c r="T40" t="n">
         <v>186.4872700401421</v>
@@ -3724,7 +3724,7 @@
         <v>254.9127959843771</v>
       </c>
       <c r="X40" t="n">
-        <v>194.0994530368233</v>
+        <v>194.0994530368232</v>
       </c>
       <c r="Y40" t="n">
         <v>186.9744509998809</v>
@@ -3737,25 +3737,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>351.1236393112667</v>
+        <v>351.1236393112668</v>
       </c>
       <c r="C41" t="n">
-        <v>333.6626894187937</v>
+        <v>333.6626894187938</v>
       </c>
       <c r="D41" t="n">
-        <v>323.0728392684691</v>
+        <v>323.0728392684692</v>
       </c>
       <c r="E41" t="n">
-        <v>350.3201677200479</v>
+        <v>350.320167720048</v>
       </c>
       <c r="F41" t="n">
-        <v>375.2658433894975</v>
+        <v>375.2658433894977</v>
       </c>
       <c r="G41" t="n">
-        <v>378.5542040247498</v>
+        <v>378.5542040247499</v>
       </c>
       <c r="H41" t="n">
-        <v>255.241665994756</v>
+        <v>255.2416659947561</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,25 +3788,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>60.32014642295181</v>
+        <v>60.32014642294995</v>
       </c>
       <c r="T41" t="n">
-        <v>168.9926026545724</v>
+        <v>168.9926026545725</v>
       </c>
       <c r="U41" t="n">
-        <v>219.3243840645689</v>
+        <v>219.324384064569</v>
       </c>
       <c r="V41" t="n">
-        <v>296.142056117921</v>
+        <v>296.1420561179211</v>
       </c>
       <c r="W41" t="n">
-        <v>317.6307663651991</v>
+        <v>317.6307663651992</v>
       </c>
       <c r="X41" t="n">
-        <v>338.1208983262551</v>
+        <v>338.1208983262553</v>
       </c>
       <c r="Y41" t="n">
-        <v>354.6277363038397</v>
+        <v>354.6277363038398</v>
       </c>
     </row>
     <row r="42">
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>148.2217778297234</v>
+        <v>148.2217778297235</v>
       </c>
       <c r="C43" t="n">
-        <v>135.6366187464139</v>
+        <v>135.6366187464141</v>
       </c>
       <c r="D43" t="n">
-        <v>117.0052706659985</v>
+        <v>117.0052706659986</v>
       </c>
       <c r="E43" t="n">
-        <v>114.8237602943553</v>
+        <v>114.8237602943554</v>
       </c>
       <c r="F43" t="n">
-        <v>113.8108456707174</v>
+        <v>113.8108456707139</v>
       </c>
       <c r="G43" t="n">
-        <v>134.0758985510282</v>
+        <v>134.0758985510284</v>
       </c>
       <c r="H43" t="n">
-        <v>110.1245053442998</v>
+        <v>110.1245053442999</v>
       </c>
       <c r="I43" t="n">
-        <v>54.52629139453017</v>
+        <v>54.52629139453029</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3943,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.04747230221582</v>
+        <v>42.04747230221594</v>
       </c>
       <c r="S43" t="n">
-        <v>152.2386502424834</v>
+        <v>152.2386502424835</v>
       </c>
       <c r="T43" t="n">
-        <v>186.4872700401421</v>
+        <v>186.4872700401422</v>
       </c>
       <c r="U43" t="n">
-        <v>254.5831063612652</v>
+        <v>254.5831063612653</v>
       </c>
       <c r="V43" t="n">
-        <v>220.5274409716141</v>
+        <v>220.5274409716142</v>
       </c>
       <c r="W43" t="n">
-        <v>254.9127959843771</v>
+        <v>254.9127959843772</v>
       </c>
       <c r="X43" t="n">
-        <v>194.0994530368233</v>
+        <v>194.0994530368234</v>
       </c>
       <c r="Y43" t="n">
-        <v>186.9744509998809</v>
+        <v>186.974450999881</v>
       </c>
     </row>
     <row r="44">
@@ -3974,25 +3974,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>351.1236393112667</v>
+        <v>351.1236393112668</v>
       </c>
       <c r="C44" t="n">
-        <v>333.6626894187937</v>
+        <v>333.6626894187938</v>
       </c>
       <c r="D44" t="n">
-        <v>323.0728392684691</v>
+        <v>323.0728392684692</v>
       </c>
       <c r="E44" t="n">
-        <v>350.3201677200479</v>
+        <v>350.320167720048</v>
       </c>
       <c r="F44" t="n">
-        <v>375.2658433894975</v>
+        <v>375.2658433894977</v>
       </c>
       <c r="G44" t="n">
-        <v>378.5542040247498</v>
+        <v>378.5542040247499</v>
       </c>
       <c r="H44" t="n">
-        <v>255.241665994756</v>
+        <v>255.2416659947561</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,25 +4025,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>60.3201464229518</v>
+        <v>60.32014642295192</v>
       </c>
       <c r="T44" t="n">
-        <v>168.9926026545724</v>
+        <v>168.9926026545725</v>
       </c>
       <c r="U44" t="n">
-        <v>219.3243840645689</v>
+        <v>219.324384064569</v>
       </c>
       <c r="V44" t="n">
-        <v>296.142056117921</v>
+        <v>296.1420561179211</v>
       </c>
       <c r="W44" t="n">
-        <v>317.6307663651991</v>
+        <v>317.6307663651992</v>
       </c>
       <c r="X44" t="n">
-        <v>338.1208983262551</v>
+        <v>338.1208983262553</v>
       </c>
       <c r="Y44" t="n">
-        <v>354.6277363038397</v>
+        <v>354.6277363038398</v>
       </c>
     </row>
     <row r="45">
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>148.2217778297234</v>
+        <v>148.2217778297235</v>
       </c>
       <c r="C46" t="n">
-        <v>135.6366187464139</v>
+        <v>135.6366187464141</v>
       </c>
       <c r="D46" t="n">
-        <v>117.0052706659985</v>
+        <v>117.0052706659986</v>
       </c>
       <c r="E46" t="n">
-        <v>114.8237602943553</v>
+        <v>114.8237602943554</v>
       </c>
       <c r="F46" t="n">
-        <v>113.8108456707174</v>
+        <v>113.8108456707175</v>
       </c>
       <c r="G46" t="n">
-        <v>134.0758985510282</v>
+        <v>134.0758985510284</v>
       </c>
       <c r="H46" t="n">
-        <v>110.1245053442998</v>
+        <v>110.1245053442965</v>
       </c>
       <c r="I46" t="n">
-        <v>54.52629139453017</v>
+        <v>54.52629139453029</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,28 +4180,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.04747230221582</v>
+        <v>42.04747230221594</v>
       </c>
       <c r="S46" t="n">
-        <v>152.2386502424834</v>
+        <v>152.2386502424835</v>
       </c>
       <c r="T46" t="n">
-        <v>186.4872700401421</v>
+        <v>186.4872700401422</v>
       </c>
       <c r="U46" t="n">
-        <v>254.5831063612652</v>
+        <v>254.5831063612653</v>
       </c>
       <c r="V46" t="n">
-        <v>220.5274409716141</v>
+        <v>220.5274409716142</v>
       </c>
       <c r="W46" t="n">
-        <v>254.9127959843771</v>
+        <v>254.9127959843772</v>
       </c>
       <c r="X46" t="n">
-        <v>194.0994530368233</v>
+        <v>194.0994530368234</v>
       </c>
       <c r="Y46" t="n">
-        <v>186.9744509998809</v>
+        <v>186.974450999881</v>
       </c>
     </row>
   </sheetData>
@@ -4304,7 +4304,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>14.44108515774386</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="C2" t="n">
         <v>14.44108515774386</v>
@@ -4334,13 +4334,13 @@
         <v>7.357368943631237</v>
       </c>
       <c r="L2" t="n">
-        <v>7.357368943631237</v>
+        <v>14.16465422792556</v>
       </c>
       <c r="M2" t="n">
-        <v>7.357368943631237</v>
+        <v>20.69689768255142</v>
       </c>
       <c r="N2" t="n">
-        <v>13.8896123982571</v>
+        <v>20.69689768255142</v>
       </c>
       <c r="O2" t="n">
         <v>20.69689768255142</v>
@@ -4352,19 +4352,19 @@
         <v>27.50418296684575</v>
       </c>
       <c r="R2" t="n">
-        <v>20.55868221764227</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="S2" t="n">
-        <v>20.55868221764227</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="T2" t="n">
-        <v>20.55868221764227</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="U2" t="n">
-        <v>20.55868221764227</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="V2" t="n">
-        <v>20.55868221764227</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="W2" t="n">
         <v>20.55868221764227</v>
@@ -4373,7 +4373,7 @@
         <v>20.55868221764227</v>
       </c>
       <c r="Y2" t="n">
-        <v>14.44108515774386</v>
+        <v>20.55868221764227</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4383,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>20.55868221764227</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="C3" t="n">
-        <v>20.55868221764227</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="D3" t="n">
-        <v>20.55868221764227</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="E3" t="n">
-        <v>20.55868221764227</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="F3" t="n">
-        <v>20.55868221764227</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="G3" t="n">
-        <v>14.44108515774386</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="H3" t="n">
-        <v>7.495584408540386</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="I3" t="n">
         <v>0.5500836593369149</v>
@@ -4410,7 +4410,7 @@
         <v>0.5500836593369149</v>
       </c>
       <c r="K3" t="n">
-        <v>0.5500836593369149</v>
+        <v>7.082327113962777</v>
       </c>
       <c r="L3" t="n">
         <v>7.082327113962777</v>
@@ -4434,25 +4434,25 @@
         <v>20.55868221764227</v>
       </c>
       <c r="S3" t="n">
-        <v>20.55868221764227</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="T3" t="n">
-        <v>20.55868221764227</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="U3" t="n">
-        <v>20.55868221764227</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="V3" t="n">
-        <v>20.55868221764227</v>
+        <v>7.495584408540386</v>
       </c>
       <c r="W3" t="n">
-        <v>20.55868221764227</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="X3" t="n">
-        <v>20.55868221764227</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="Y3" t="n">
-        <v>20.55868221764227</v>
+        <v>0.5500836593369149</v>
       </c>
     </row>
     <row r="4">
@@ -4462,7 +4462,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.5500836593369149</v>
+        <v>6.667680719235332</v>
       </c>
       <c r="C4" t="n">
         <v>0.5500836593369149</v>
@@ -4489,49 +4489,49 @@
         <v>0.5500836593369149</v>
       </c>
       <c r="K4" t="n">
-        <v>0.5500836593369149</v>
+        <v>7.357368943631237</v>
       </c>
       <c r="L4" t="n">
         <v>7.357368943631237</v>
       </c>
       <c r="M4" t="n">
-        <v>7.357368943631237</v>
+        <v>14.16465422792556</v>
       </c>
       <c r="N4" t="n">
-        <v>13.8896123982571</v>
+        <v>20.69689768255142</v>
       </c>
       <c r="O4" t="n">
-        <v>20.69689768255142</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="P4" t="n">
         <v>27.50418296684575</v>
       </c>
       <c r="Q4" t="n">
+        <v>27.50418296684575</v>
+      </c>
+      <c r="R4" t="n">
         <v>20.55868221764227</v>
       </c>
-      <c r="R4" t="n">
+      <c r="S4" t="n">
+        <v>20.55868221764227</v>
+      </c>
+      <c r="T4" t="n">
         <v>13.6131814684388</v>
       </c>
-      <c r="S4" t="n">
-        <v>7.495584408540386</v>
-      </c>
-      <c r="T4" t="n">
-        <v>7.495584408540386</v>
-      </c>
       <c r="U4" t="n">
-        <v>7.495584408540386</v>
+        <v>13.6131814684388</v>
       </c>
       <c r="V4" t="n">
-        <v>7.495584408540386</v>
+        <v>13.6131814684388</v>
       </c>
       <c r="W4" t="n">
-        <v>7.495584408540386</v>
+        <v>13.6131814684388</v>
       </c>
       <c r="X4" t="n">
-        <v>7.495584408540386</v>
+        <v>6.667680719235332</v>
       </c>
       <c r="Y4" t="n">
-        <v>7.495584408540386</v>
+        <v>6.667680719235332</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>172.5534651716669</v>
+        <v>23.93730437680452</v>
       </c>
       <c r="C5" t="n">
-        <v>172.5534651716669</v>
+        <v>23.93730437680452</v>
       </c>
       <c r="D5" t="n">
-        <v>172.5534651716669</v>
+        <v>23.93730437680452</v>
       </c>
       <c r="E5" t="n">
-        <v>116.5150574126169</v>
+        <v>23.93730437680452</v>
       </c>
       <c r="F5" t="n">
-        <v>60.47664965356682</v>
+        <v>16.99180362760104</v>
       </c>
       <c r="G5" t="n">
-        <v>4.438241894516763</v>
+        <v>2.959489061260438</v>
       </c>
       <c r="H5" t="n">
-        <v>4.438241894516763</v>
+        <v>2.959489061260438</v>
       </c>
       <c r="I5" t="n">
-        <v>4.438241894516763</v>
+        <v>2.959489061260438</v>
       </c>
       <c r="J5" t="n">
-        <v>4.438241894516763</v>
+        <v>39.58316619435835</v>
       </c>
       <c r="K5" t="n">
-        <v>59.36148533916172</v>
+        <v>39.58316619435835</v>
       </c>
       <c r="L5" t="n">
-        <v>114.2847287838067</v>
+        <v>76.20684332745626</v>
       </c>
       <c r="M5" t="n">
-        <v>156.3124898740381</v>
+        <v>93.40159588934361</v>
       </c>
       <c r="N5" t="n">
-        <v>196.9111718378971</v>
+        <v>115.4883859030756</v>
       </c>
       <c r="O5" t="n">
-        <v>221.9120947258382</v>
+        <v>147.9744530630219</v>
       </c>
       <c r="P5" t="n">
-        <v>221.9120947258382</v>
+        <v>147.9744530630219</v>
       </c>
       <c r="Q5" t="n">
-        <v>221.9120947258382</v>
+        <v>147.9744530630219</v>
       </c>
       <c r="R5" t="n">
-        <v>221.9120947258382</v>
+        <v>147.9744530630219</v>
       </c>
       <c r="S5" t="n">
-        <v>221.9120947258382</v>
+        <v>110.6071669359962</v>
       </c>
       <c r="T5" t="n">
-        <v>221.9120947258382</v>
+        <v>73.23988080897044</v>
       </c>
       <c r="U5" t="n">
-        <v>221.9120947258382</v>
+        <v>61.30459050383024</v>
       </c>
       <c r="V5" t="n">
-        <v>221.9120947258382</v>
+        <v>61.30459050383024</v>
       </c>
       <c r="W5" t="n">
-        <v>221.9120947258382</v>
+        <v>61.30459050383024</v>
       </c>
       <c r="X5" t="n">
-        <v>172.5534651716669</v>
+        <v>61.30459050383024</v>
       </c>
       <c r="Y5" t="n">
-        <v>172.5534651716669</v>
+        <v>23.93730437680452</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>116.5150574126169</v>
+        <v>2.959489061260438</v>
       </c>
       <c r="C6" t="n">
-        <v>116.5150574126169</v>
+        <v>2.959489061260438</v>
       </c>
       <c r="D6" t="n">
-        <v>116.5150574126169</v>
+        <v>2.959489061260438</v>
       </c>
       <c r="E6" t="n">
-        <v>60.47664965356682</v>
+        <v>2.959489061260438</v>
       </c>
       <c r="F6" t="n">
-        <v>4.438241894516763</v>
+        <v>2.959489061260438</v>
       </c>
       <c r="G6" t="n">
-        <v>4.438241894516763</v>
+        <v>2.959489061260438</v>
       </c>
       <c r="H6" t="n">
-        <v>4.438241894516763</v>
+        <v>2.959489061260438</v>
       </c>
       <c r="I6" t="n">
-        <v>4.438241894516763</v>
+        <v>2.959489061260438</v>
       </c>
       <c r="J6" t="n">
-        <v>4.438241894516763</v>
+        <v>2.959489061260438</v>
       </c>
       <c r="K6" t="n">
-        <v>4.438241894516763</v>
+        <v>2.959489061260438</v>
       </c>
       <c r="L6" t="n">
-        <v>41.57417741980004</v>
+        <v>28.04275820728447</v>
       </c>
       <c r="M6" t="n">
-        <v>96.49742086444496</v>
+        <v>64.66643534038239</v>
       </c>
       <c r="N6" t="n">
-        <v>151.4206643090899</v>
+        <v>101.2901124734803</v>
       </c>
       <c r="O6" t="n">
-        <v>201.2515122951457</v>
+        <v>137.9137896065783</v>
       </c>
       <c r="P6" t="n">
-        <v>221.9120947258382</v>
+        <v>147.9744530630219</v>
       </c>
       <c r="Q6" t="n">
-        <v>221.9120947258382</v>
+        <v>147.9744530630219</v>
       </c>
       <c r="R6" t="n">
-        <v>171.5971808645277</v>
+        <v>115.0613474423376</v>
       </c>
       <c r="S6" t="n">
-        <v>116.5150574126169</v>
+        <v>77.6940613153119</v>
       </c>
       <c r="T6" t="n">
-        <v>116.5150574126169</v>
+        <v>77.6940613153119</v>
       </c>
       <c r="U6" t="n">
-        <v>116.5150574126169</v>
+        <v>77.6940613153119</v>
       </c>
       <c r="V6" t="n">
-        <v>116.5150574126169</v>
+        <v>77.6940613153119</v>
       </c>
       <c r="W6" t="n">
-        <v>116.5150574126169</v>
+        <v>40.32677518828616</v>
       </c>
       <c r="X6" t="n">
-        <v>116.5150574126169</v>
+        <v>40.32677518828616</v>
       </c>
       <c r="Y6" t="n">
-        <v>116.5150574126169</v>
+        <v>2.959489061260438</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>80.30354643958796</v>
+        <v>2.959489061260438</v>
       </c>
       <c r="C7" t="n">
-        <v>80.30354643958796</v>
+        <v>2.959489061260438</v>
       </c>
       <c r="D7" t="n">
-        <v>80.30354643958796</v>
+        <v>2.959489061260438</v>
       </c>
       <c r="E7" t="n">
-        <v>50.1917053716253</v>
+        <v>2.959489061260438</v>
       </c>
       <c r="F7" t="n">
-        <v>50.1917053716253</v>
+        <v>2.959489061260438</v>
       </c>
       <c r="G7" t="n">
-        <v>50.1917053716253</v>
+        <v>2.959489061260438</v>
       </c>
       <c r="H7" t="n">
-        <v>50.1917053716253</v>
+        <v>2.959489061260438</v>
       </c>
       <c r="I7" t="n">
-        <v>50.1917053716253</v>
+        <v>2.959489061260438</v>
       </c>
       <c r="J7" t="n">
-        <v>4.438241894516763</v>
+        <v>2.959489061260438</v>
       </c>
       <c r="K7" t="n">
-        <v>59.36148533916172</v>
+        <v>39.58316619435835</v>
       </c>
       <c r="L7" t="n">
-        <v>112.0656078365483</v>
+        <v>76.20684332745626</v>
       </c>
       <c r="M7" t="n">
-        <v>112.0656078365483</v>
+        <v>112.8305204605542</v>
       </c>
       <c r="N7" t="n">
-        <v>112.0656078365483</v>
+        <v>147.9744530630219</v>
       </c>
       <c r="O7" t="n">
-        <v>166.9888512811932</v>
+        <v>147.9744530630219</v>
       </c>
       <c r="P7" t="n">
-        <v>221.9120947258382</v>
+        <v>147.9744530630219</v>
       </c>
       <c r="Q7" t="n">
-        <v>192.3803619576881</v>
+        <v>114.4667192132851</v>
       </c>
       <c r="R7" t="n">
-        <v>192.3803619576881</v>
+        <v>114.4667192132851</v>
       </c>
       <c r="S7" t="n">
-        <v>192.3803619576881</v>
+        <v>77.6940613153119</v>
       </c>
       <c r="T7" t="n">
-        <v>192.3803619576881</v>
+        <v>77.6940613153119</v>
       </c>
       <c r="U7" t="n">
-        <v>136.341954198638</v>
+        <v>77.6940613153119</v>
       </c>
       <c r="V7" t="n">
-        <v>136.341954198638</v>
+        <v>40.32677518828616</v>
       </c>
       <c r="W7" t="n">
-        <v>136.341954198638</v>
+        <v>2.959489061260438</v>
       </c>
       <c r="X7" t="n">
-        <v>80.30354643958796</v>
+        <v>2.959489061260438</v>
       </c>
       <c r="Y7" t="n">
-        <v>80.30354643958796</v>
+        <v>2.959489061260438</v>
       </c>
     </row>
     <row r="8">
@@ -4778,10 +4778,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>35.17768229832528</v>
+        <v>224.5974673148102</v>
       </c>
       <c r="C8" t="n">
-        <v>35.17768229832528</v>
+        <v>224.5974673148102</v>
       </c>
       <c r="D8" t="n">
         <v>35.17768229832528</v>
@@ -4802,13 +4802,13 @@
         <v>15.0020469733056</v>
       </c>
       <c r="J8" t="n">
-        <v>21.03371160678489</v>
+        <v>21.03371160678478</v>
       </c>
       <c r="K8" t="n">
-        <v>80.81213159058939</v>
+        <v>80.81213159058944</v>
       </c>
       <c r="L8" t="n">
-        <v>191.8743094079184</v>
+        <v>191.8743094079185</v>
       </c>
       <c r="M8" t="n">
         <v>347.1218190644755</v>
@@ -4817,7 +4817,7 @@
         <v>509.495204112383</v>
       </c>
       <c r="O8" t="n">
-        <v>649.4845259985586</v>
+        <v>649.4845259985585</v>
       </c>
       <c r="P8" t="n">
         <v>734.4611726020269</v>
@@ -4826,28 +4826,28 @@
         <v>750.10234866528</v>
       </c>
       <c r="R8" t="n">
-        <v>738.6222485201474</v>
+        <v>750.10234866528</v>
       </c>
       <c r="S8" t="n">
-        <v>738.6222485201474</v>
+        <v>750.10234866528</v>
       </c>
       <c r="T8" t="n">
-        <v>738.6222485201474</v>
+        <v>560.6825636487952</v>
       </c>
       <c r="U8" t="n">
-        <v>549.2024635036626</v>
+        <v>414.017252331295</v>
       </c>
       <c r="V8" t="n">
-        <v>549.2024635036626</v>
+        <v>224.5974673148102</v>
       </c>
       <c r="W8" t="n">
-        <v>359.7826784871777</v>
+        <v>224.5974673148102</v>
       </c>
       <c r="X8" t="n">
-        <v>170.3628934706928</v>
+        <v>224.5974673148102</v>
       </c>
       <c r="Y8" t="n">
-        <v>35.17768229832528</v>
+        <v>224.5974673148102</v>
       </c>
     </row>
     <row r="9">
@@ -4857,25 +4857,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>750.10234866528</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="C9" t="n">
-        <v>750.10234866528</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="D9" t="n">
-        <v>601.1679390040288</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="E9" t="n">
-        <v>441.9304839985733</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="F9" t="n">
-        <v>295.3959260254583</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="G9" t="n">
-        <v>157.8567448479074</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="H9" t="n">
-        <v>64.27357399906981</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="I9" t="n">
         <v>15.0020469733056</v>
@@ -4920,13 +4920,13 @@
         <v>750.10234866528</v>
       </c>
       <c r="W9" t="n">
-        <v>750.10234866528</v>
+        <v>560.6825636487952</v>
       </c>
       <c r="X9" t="n">
-        <v>750.10234866528</v>
+        <v>372.6371690098585</v>
       </c>
       <c r="Y9" t="n">
-        <v>750.10234866528</v>
+        <v>183.2173839933736</v>
       </c>
     </row>
     <row r="10">
@@ -4936,19 +4936,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>746.7254979846277</v>
+        <v>186.2374631214183</v>
       </c>
       <c r="C10" t="n">
-        <v>628.6105509030299</v>
+        <v>186.2374631214183</v>
       </c>
       <c r="D10" t="n">
-        <v>478.4939114906941</v>
+        <v>36.12082370908257</v>
       </c>
       <c r="E10" t="n">
-        <v>330.580817908301</v>
+        <v>36.12082370908257</v>
       </c>
       <c r="F10" t="n">
-        <v>183.6908704103906</v>
+        <v>36.12082370908257</v>
       </c>
       <c r="G10" t="n">
         <v>15.0020469733056</v>
@@ -4963,10 +4963,10 @@
         <v>15.0020469733056</v>
       </c>
       <c r="K10" t="n">
-        <v>89.66773767220397</v>
+        <v>106.7151088594234</v>
       </c>
       <c r="L10" t="n">
-        <v>262.5553157873391</v>
+        <v>279.6026869745585</v>
       </c>
       <c r="M10" t="n">
         <v>448.2056470819959</v>
@@ -4990,22 +4990,22 @@
         <v>746.7254979846277</v>
       </c>
       <c r="T10" t="n">
-        <v>746.7254979846277</v>
+        <v>557.3057129681429</v>
       </c>
       <c r="U10" t="n">
-        <v>746.7254979846277</v>
+        <v>557.3057129681429</v>
       </c>
       <c r="V10" t="n">
-        <v>746.7254979846277</v>
+        <v>557.3057129681429</v>
       </c>
       <c r="W10" t="n">
-        <v>746.7254979846277</v>
+        <v>557.3057129681429</v>
       </c>
       <c r="X10" t="n">
-        <v>746.7254979846277</v>
+        <v>557.3057129681429</v>
       </c>
       <c r="Y10" t="n">
-        <v>746.7254979846277</v>
+        <v>367.885927951658</v>
       </c>
     </row>
     <row r="11">
@@ -5015,34 +5015,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1934.208022973022</v>
+        <v>1295.236214140706</v>
       </c>
       <c r="C11" t="n">
-        <v>1934.208022973022</v>
+        <v>926.2736972002942</v>
       </c>
       <c r="D11" t="n">
-        <v>1575.942324366272</v>
+        <v>568.0079985935436</v>
       </c>
       <c r="E11" t="n">
-        <v>1190.154071768027</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="F11" t="n">
-        <v>779.1681669784198</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="G11" t="n">
         <v>364.0957168234162</v>
       </c>
       <c r="H11" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I11" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J11" t="n">
         <v>255.3912473912092</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810559</v>
       </c>
       <c r="L11" t="n">
         <v>1040.244834329465</v>
@@ -5057,10 +5057,10 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R11" t="n">
         <v>3325.605821609171</v>
@@ -5069,22 +5069,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T11" t="n">
-        <v>3009.337405520489</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U11" t="n">
-        <v>2755.806928794325</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V11" t="n">
-        <v>2424.744041450754</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W11" t="n">
-        <v>2071.97538618064</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X11" t="n">
-        <v>2071.97538618064</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="Y11" t="n">
-        <v>2071.97538618064</v>
+        <v>1681.836054204828</v>
       </c>
     </row>
     <row r="12">
@@ -5112,19 +5112,19 @@
         <v>176.0213023927781</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I12" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J12" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L12" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M12" t="n">
         <v>1212.428070438129</v>
@@ -5173,7 +5173,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>234.2149530574644</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="C13" t="n">
         <v>234.2149530574645</v>
@@ -5188,40 +5188,40 @@
         <v>234.2149530574645</v>
       </c>
       <c r="G13" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H13" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I13" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J13" t="n">
-        <v>111.6347488791191</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K13" t="n">
-        <v>315.6219318279957</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L13" t="n">
-        <v>632.1817302764921</v>
+        <v>632.1817302764915</v>
       </c>
       <c r="M13" t="n">
-        <v>976.3387758760412</v>
+        <v>976.3387758760402</v>
       </c>
       <c r="N13" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O13" t="n">
-        <v>1617.076751502319</v>
+        <v>1617.076751502318</v>
       </c>
       <c r="P13" t="n">
-        <v>1849.684251935978</v>
+        <v>1849.684251935977</v>
       </c>
       <c r="Q13" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R13" t="n">
-        <v>1837.464090846021</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S13" t="n">
         <v>1645.778206672847</v>
@@ -5230,19 +5230,19 @@
         <v>1424.011591242373</v>
       </c>
       <c r="U13" t="n">
-        <v>1134.908724368016</v>
+        <v>1134.908724368017</v>
       </c>
       <c r="V13" t="n">
-        <v>880.2242361621296</v>
+        <v>880.2242361621301</v>
       </c>
       <c r="W13" t="n">
-        <v>590.8070661251691</v>
+        <v>590.8070661251695</v>
       </c>
       <c r="X13" t="n">
-        <v>455.0075322009945</v>
+        <v>590.8070661251695</v>
       </c>
       <c r="Y13" t="n">
-        <v>234.2149530574644</v>
+        <v>370.0144869816394</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1728.31280116124</v>
+        <v>1593.39300989543</v>
       </c>
       <c r="C14" t="n">
-        <v>1359.350284220829</v>
+        <v>1224.430492955019</v>
       </c>
       <c r="D14" t="n">
-        <v>1359.350284220829</v>
+        <v>1192.996477499168</v>
       </c>
       <c r="E14" t="n">
-        <v>973.5620316225843</v>
+        <v>807.2082249009241</v>
       </c>
       <c r="F14" t="n">
-        <v>562.5761268329768</v>
+        <v>807.2082249009241</v>
       </c>
       <c r="G14" t="n">
-        <v>368.7851773188239</v>
+        <v>392.6798753906209</v>
       </c>
       <c r="H14" t="n">
-        <v>74.65636013585049</v>
+        <v>100.668545726925</v>
       </c>
       <c r="I14" t="n">
-        <v>74.65636013585049</v>
+        <v>79.64808707120233</v>
       </c>
       <c r="J14" t="n">
-        <v>291.597038292357</v>
+        <v>313.7881008677068</v>
       </c>
       <c r="K14" t="n">
-        <v>667.4733970255365</v>
+        <v>715.4418052574219</v>
       </c>
       <c r="L14" t="n">
-        <v>1170.68301915321</v>
+        <v>1250.630504060852</v>
       </c>
       <c r="M14" t="n">
-        <v>1762.270119328334</v>
+        <v>1877.800488746167</v>
       </c>
       <c r="N14" t="n">
-        <v>2368.043525648396</v>
+        <v>2519.732547848555</v>
       </c>
       <c r="O14" t="n">
-        <v>2926.722914277562</v>
+        <v>3112.555526961396</v>
       </c>
       <c r="P14" t="n">
-        <v>3369.041846109127</v>
+        <v>3584.015223330895</v>
       </c>
       <c r="Q14" t="n">
-        <v>3653.032196494061</v>
+        <v>3889.889074286899</v>
       </c>
       <c r="R14" t="n">
-        <v>3732.818006792525</v>
+        <v>3982.404353560116</v>
       </c>
       <c r="S14" t="n">
-        <v>3630.214473421117</v>
+        <v>3884.512378528319</v>
       </c>
       <c r="T14" t="n">
-        <v>3425.713431626812</v>
+        <v>3680.916431484717</v>
       </c>
       <c r="U14" t="n">
-        <v>3172.209942100127</v>
+        <v>3427.42948281013</v>
       </c>
       <c r="V14" t="n">
-        <v>2841.147054756556</v>
+        <v>3096.366595466559</v>
       </c>
       <c r="W14" t="n">
-        <v>2488.378399486442</v>
+        <v>2743.597940196445</v>
       </c>
       <c r="X14" t="n">
-        <v>2114.912641225362</v>
+        <v>2370.132181935365</v>
       </c>
       <c r="Y14" t="n">
-        <v>2114.912641225362</v>
+        <v>1979.992849959552</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5500890872712</v>
+        <v>941.5539103692278</v>
       </c>
       <c r="C15" t="n">
-        <v>767.0970598061442</v>
+        <v>767.1008810881008</v>
       </c>
       <c r="D15" t="n">
-        <v>618.162650144893</v>
+        <v>618.1664714268495</v>
       </c>
       <c r="E15" t="n">
-        <v>458.9251951394375</v>
+        <v>458.929016421394</v>
       </c>
       <c r="F15" t="n">
-        <v>312.3906371663225</v>
+        <v>312.3944584482789</v>
       </c>
       <c r="G15" t="n">
-        <v>176.2080298077179</v>
+        <v>176.3224777909364</v>
       </c>
       <c r="H15" t="n">
-        <v>87.44931599351392</v>
+        <v>88.63218501260562</v>
       </c>
       <c r="I15" t="n">
-        <v>74.65636013585049</v>
+        <v>79.64808707120233</v>
       </c>
       <c r="J15" t="n">
-        <v>74.65636013585049</v>
+        <v>200.2824283117337</v>
       </c>
       <c r="K15" t="n">
-        <v>341.4861915123123</v>
+        <v>484.6205565719</v>
       </c>
       <c r="L15" t="n">
-        <v>746.5943697995453</v>
+        <v>484.6205565719</v>
       </c>
       <c r="M15" t="n">
-        <v>1238.693374314676</v>
+        <v>1004.192041489334</v>
       </c>
       <c r="N15" t="n">
-        <v>1758.22542010878</v>
+        <v>1551.923682495074</v>
       </c>
       <c r="O15" t="n">
-        <v>2211.275947987927</v>
+        <v>1981.6978967788</v>
       </c>
       <c r="P15" t="n">
-        <v>2555.555872007747</v>
+        <v>2346.68228421831</v>
       </c>
       <c r="Q15" t="n">
-        <v>2560.823461764606</v>
+        <v>2540.745485066687</v>
       </c>
       <c r="R15" t="n">
-        <v>2560.823461764606</v>
+        <v>2558.319259279792</v>
       </c>
       <c r="S15" t="n">
-        <v>2434.738150017613</v>
+        <v>2434.288789988259</v>
       </c>
       <c r="T15" t="n">
-        <v>2242.822662376461</v>
+        <v>2242.819205585966</v>
       </c>
       <c r="U15" t="n">
-        <v>2014.76669003777</v>
+        <v>2014.770511319727</v>
       </c>
       <c r="V15" t="n">
-        <v>1779.614581806027</v>
+        <v>1779.618403087984</v>
       </c>
       <c r="W15" t="n">
-        <v>1525.377225077826</v>
+        <v>1525.381046359782</v>
       </c>
       <c r="X15" t="n">
-        <v>1317.525724872293</v>
+        <v>1317.52954615425</v>
       </c>
       <c r="Y15" t="n">
-        <v>1109.765426107339</v>
+        <v>1109.769247389296</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>392.3245170657348</v>
+        <v>248.5842699991092</v>
       </c>
       <c r="C16" t="n">
-        <v>392.3245170657348</v>
+        <v>79.64808707120233</v>
       </c>
       <c r="D16" t="n">
-        <v>242.207877653399</v>
+        <v>79.64808707120233</v>
       </c>
       <c r="E16" t="n">
-        <v>242.207877653399</v>
+        <v>79.64808707120233</v>
       </c>
       <c r="F16" t="n">
-        <v>242.207877653399</v>
+        <v>79.64808707120233</v>
       </c>
       <c r="G16" t="n">
-        <v>74.65636013585049</v>
+        <v>79.64808707120233</v>
       </c>
       <c r="H16" t="n">
-        <v>74.65636013585049</v>
+        <v>79.64808707120233</v>
       </c>
       <c r="I16" t="n">
-        <v>74.65636013585049</v>
+        <v>79.64808707120233</v>
       </c>
       <c r="J16" t="n">
-        <v>130.2643581072323</v>
+        <v>141.6827200279569</v>
       </c>
       <c r="K16" t="n">
-        <v>351.4822175897879</v>
+        <v>373.4615149757384</v>
       </c>
       <c r="L16" t="n">
-        <v>690.091349687094</v>
+        <v>725.5850084657131</v>
       </c>
       <c r="M16" t="n">
-        <v>1057.496326074611</v>
+        <v>1107.238984088511</v>
       </c>
       <c r="N16" t="n">
-        <v>1421.599849735986</v>
+        <v>1485.252697631432</v>
       </c>
       <c r="O16" t="n">
-        <v>1741.892090185793</v>
+        <v>1818.393249866319</v>
       </c>
       <c r="P16" t="n">
-        <v>1992.436751856077</v>
+        <v>2079.931861883189</v>
       </c>
       <c r="Q16" t="n">
-        <v>2082.46580869339</v>
+        <v>2177.572560079673</v>
       </c>
       <c r="R16" t="n">
-        <v>2082.46580869339</v>
+        <v>2098.716144557464</v>
       </c>
       <c r="S16" t="n">
-        <v>1893.417003879518</v>
+        <v>1911.283644528598</v>
       </c>
       <c r="T16" t="n">
-        <v>1672.296933727538</v>
+        <v>1690.559851501788</v>
       </c>
       <c r="U16" t="n">
-        <v>1566.856770180369</v>
+        <v>1401.470297253861</v>
       </c>
       <c r="V16" t="n">
-        <v>1312.172281974483</v>
+        <v>1146.785809047974</v>
       </c>
       <c r="W16" t="n">
-        <v>1022.755111937522</v>
+        <v>857.3686390110142</v>
       </c>
       <c r="X16" t="n">
-        <v>794.7655610395046</v>
+        <v>629.3790881129969</v>
       </c>
       <c r="Y16" t="n">
-        <v>573.9729818959745</v>
+        <v>408.5865089694668</v>
       </c>
     </row>
     <row r="17">
@@ -5489,37 +5489,37 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2121.462641112807</v>
+        <v>2011.712110781004</v>
       </c>
       <c r="C17" t="n">
-        <v>1784.429621497864</v>
+        <v>1660.960274874585</v>
       </c>
       <c r="D17" t="n">
-        <v>1458.093420216582</v>
+        <v>1320.905257301828</v>
       </c>
       <c r="E17" t="n">
-        <v>1104.234664943806</v>
+        <v>953.3276857375769</v>
       </c>
       <c r="F17" t="n">
-        <v>725.1782574796674</v>
+        <v>752.6158900626182</v>
       </c>
       <c r="G17" t="n">
-        <v>342.8002736162839</v>
+        <v>356.5190899077592</v>
       </c>
       <c r="H17" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="I17" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J17" t="n">
-        <v>337.4933016076839</v>
+        <v>337.4933016076836</v>
       </c>
       <c r="K17" t="n">
-        <v>766.6831886951445</v>
+        <v>766.683188695145</v>
       </c>
       <c r="L17" t="n">
-        <v>1336.032957050963</v>
+        <v>1336.032957050964</v>
       </c>
       <c r="M17" t="n">
         <v>2001.213713746739</v>
@@ -5534,31 +5534,31 @@
         <v>3813.656640612704</v>
       </c>
       <c r="Q17" t="n">
-        <v>4142.907144767229</v>
+        <v>4142.907144767228</v>
       </c>
       <c r="R17" t="n">
-        <v>4249.020448755812</v>
+        <v>4249.020448755811</v>
       </c>
       <c r="S17" t="n">
-        <v>4188.091007924548</v>
+        <v>4174.372191633071</v>
       </c>
       <c r="T17" t="n">
-        <v>4017.391409283566</v>
+        <v>3989.953776700614</v>
       </c>
       <c r="U17" t="n">
-        <v>3795.851627400162</v>
+        <v>3754.695178525736</v>
       </c>
       <c r="V17" t="n">
-        <v>3496.71823738206</v>
+        <v>3441.842972216158</v>
       </c>
       <c r="W17" t="n">
-        <v>3175.879079437415</v>
+        <v>3107.284997980037</v>
       </c>
       <c r="X17" t="n">
-        <v>2834.342818501804</v>
+        <v>2752.029920752951</v>
       </c>
       <c r="Y17" t="n">
-        <v>2476.132983851461</v>
+        <v>2380.101269811132</v>
       </c>
     </row>
     <row r="18">
@@ -5586,25 +5586,25 @@
         <v>176.4447347764803</v>
       </c>
       <c r="H18" t="n">
-        <v>89.89576342177179</v>
+        <v>89.89576342177176</v>
       </c>
       <c r="I18" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J18" t="n">
-        <v>216.557510983586</v>
+        <v>216.5575109835859</v>
       </c>
       <c r="K18" t="n">
-        <v>216.557510983586</v>
+        <v>519.5985603334505</v>
       </c>
       <c r="L18" t="n">
-        <v>301.7509472448909</v>
+        <v>973.3971899277778</v>
       </c>
       <c r="M18" t="n">
-        <v>850.66941185518</v>
+        <v>973.3971899277778</v>
       </c>
       <c r="N18" t="n">
-        <v>1428.524759781582</v>
+        <v>1551.25253785418</v>
       </c>
       <c r="O18" t="n">
         <v>1934.929714729833</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>872.8624197502103</v>
+        <v>641.8265783487316</v>
       </c>
       <c r="C19" t="n">
-        <v>735.855734147772</v>
+        <v>491.1010764548179</v>
       </c>
       <c r="D19" t="n">
-        <v>617.6685920609049</v>
+        <v>359.1951180764754</v>
       </c>
       <c r="E19" t="n">
-        <v>501.6849958039804</v>
+        <v>359.1951180764754</v>
       </c>
       <c r="F19" t="n">
-        <v>386.7245456315386</v>
+        <v>230.5158516125582</v>
       </c>
       <c r="G19" t="n">
-        <v>251.2943450749444</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="H19" t="n">
-        <v>140.0574709897932</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="I19" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J19" t="n">
-        <v>185.1742787042787</v>
+        <v>171.7284668570034</v>
       </c>
       <c r="K19" t="n">
-        <v>459.5287020443614</v>
+        <v>432.6370783498112</v>
       </c>
       <c r="L19" t="n">
-        <v>857.3827676902788</v>
+        <v>817.0453321484537</v>
       </c>
       <c r="M19" t="n">
-        <v>1285.552079040894</v>
+        <v>1231.768831651793</v>
       </c>
       <c r="N19" t="n">
-        <v>1709.719201354974</v>
+        <v>1642.490142118598</v>
       </c>
       <c r="O19" t="n">
-        <v>2087.878830313936</v>
+        <v>2007.203959230286</v>
       </c>
       <c r="P19" t="n">
-        <v>2392.455631028689</v>
+        <v>2298.334948097764</v>
       </c>
       <c r="Q19" t="n">
-        <v>2529.521427597205</v>
+        <v>2421.954932819005</v>
       </c>
       <c r="R19" t="n">
-        <v>2487.049233352543</v>
+        <v>2365.763922282867</v>
       </c>
       <c r="S19" t="n">
-        <v>2333.272818966196</v>
+        <v>2198.268691605045</v>
       </c>
       <c r="T19" t="n">
-        <v>2144.901839127669</v>
+        <v>1996.178895475042</v>
       </c>
       <c r="U19" t="n">
-        <v>1887.747186237502</v>
+        <v>1725.3054262934</v>
       </c>
       <c r="V19" t="n">
-        <v>1664.992195357084</v>
+        <v>1488.831619121506</v>
       </c>
       <c r="W19" t="n">
-        <v>1407.504522645592</v>
+        <v>1217.625130118539</v>
       </c>
       <c r="X19" t="n">
-        <v>1211.444469073043</v>
+        <v>1007.846260254515</v>
       </c>
       <c r="Y19" t="n">
-        <v>1022.581387254981</v>
+        <v>805.2643621449781</v>
       </c>
     </row>
     <row r="20">
@@ -5726,31 +5726,31 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2121.462641112808</v>
+        <v>2121.462641112807</v>
       </c>
       <c r="C20" t="n">
-        <v>1784.429621497865</v>
+        <v>1784.429621497864</v>
       </c>
       <c r="D20" t="n">
         <v>1458.093420216582</v>
       </c>
       <c r="E20" t="n">
-        <v>1104.234664943806</v>
+        <v>1104.234664943807</v>
       </c>
       <c r="F20" t="n">
         <v>725.1782574796674</v>
       </c>
       <c r="G20" t="n">
-        <v>342.8002736162838</v>
+        <v>342.8002736162839</v>
       </c>
       <c r="H20" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="I20" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J20" t="n">
-        <v>337.4933016076834</v>
+        <v>337.4933016076836</v>
       </c>
       <c r="K20" t="n">
         <v>766.683188695145</v>
@@ -5759,34 +5759,34 @@
         <v>1336.032957050963</v>
       </c>
       <c r="M20" t="n">
-        <v>2001.213713746739</v>
+        <v>2001.213713746738</v>
       </c>
       <c r="N20" t="n">
         <v>2681.771598889755</v>
       </c>
       <c r="O20" t="n">
-        <v>3311.067850233288</v>
+        <v>3311.067850233287</v>
       </c>
       <c r="P20" t="n">
         <v>3813.656640612704</v>
       </c>
       <c r="Q20" t="n">
-        <v>4142.907144767229</v>
+        <v>4142.907144767228</v>
       </c>
       <c r="R20" t="n">
-        <v>4249.020448755812</v>
+        <v>4249.020448755811</v>
       </c>
       <c r="S20" t="n">
-        <v>4188.091007924548</v>
+        <v>4188.091007924547</v>
       </c>
       <c r="T20" t="n">
-        <v>4017.391409283566</v>
+        <v>4017.391409283565</v>
       </c>
       <c r="U20" t="n">
-        <v>3795.851627400163</v>
+        <v>3795.851627400162</v>
       </c>
       <c r="V20" t="n">
-        <v>3496.718237382061</v>
+        <v>3496.71823738206</v>
       </c>
       <c r="W20" t="n">
         <v>3175.879079437415</v>
@@ -5823,34 +5823,34 @@
         <v>176.4447347764803</v>
       </c>
       <c r="H21" t="n">
-        <v>89.89576342177179</v>
+        <v>89.89576342177176</v>
       </c>
       <c r="I21" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J21" t="n">
-        <v>216.557510983586</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="K21" t="n">
-        <v>519.5985603334505</v>
+        <v>388.0214583249807</v>
       </c>
       <c r="L21" t="n">
-        <v>973.3971899277778</v>
+        <v>388.0214583249807</v>
       </c>
       <c r="M21" t="n">
-        <v>1522.315654538067</v>
+        <v>936.9399229352698</v>
       </c>
       <c r="N21" t="n">
-        <v>1959.694692760353</v>
+        <v>1514.795270861672</v>
       </c>
       <c r="O21" t="n">
-        <v>1959.694692760353</v>
+        <v>2021.200225809922</v>
       </c>
       <c r="P21" t="n">
-        <v>2346.796248312508</v>
+        <v>2322.031270281988</v>
       </c>
       <c r="Q21" t="n">
-        <v>2555.644190323788</v>
+        <v>2530.879212293268</v>
       </c>
       <c r="R21" t="n">
         <v>2555.644190323788</v>
@@ -5884,37 +5884,37 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>872.8624197502104</v>
+        <v>872.8624197502097</v>
       </c>
       <c r="C22" t="n">
-        <v>735.8557341477722</v>
+        <v>735.8557341477714</v>
       </c>
       <c r="D22" t="n">
-        <v>617.6685920609046</v>
+        <v>617.6685920609043</v>
       </c>
       <c r="E22" t="n">
-        <v>501.6849958039802</v>
+        <v>501.6849958039798</v>
       </c>
       <c r="F22" t="n">
-        <v>386.7245456315385</v>
+        <v>386.724545631538</v>
       </c>
       <c r="G22" t="n">
-        <v>251.2943450749443</v>
+        <v>251.2943450749438</v>
       </c>
       <c r="H22" t="n">
         <v>140.0574709897931</v>
       </c>
       <c r="I22" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J22" t="n">
-        <v>185.1742787042788</v>
+        <v>185.1742787042785</v>
       </c>
       <c r="K22" t="n">
         <v>459.5287020443616</v>
       </c>
       <c r="L22" t="n">
-        <v>857.3827676902791</v>
+        <v>857.382767690279</v>
       </c>
       <c r="M22" t="n">
         <v>1285.552079040894</v>
@@ -5929,28 +5929,28 @@
         <v>2392.455631028689</v>
       </c>
       <c r="Q22" t="n">
-        <v>2529.521427597206</v>
+        <v>2529.521427597205</v>
       </c>
       <c r="R22" t="n">
-        <v>2487.049233352544</v>
+        <v>2487.049233352543</v>
       </c>
       <c r="S22" t="n">
-        <v>2333.272818966197</v>
+        <v>2333.272818966196</v>
       </c>
       <c r="T22" t="n">
-        <v>2144.90183912767</v>
+        <v>2144.901839127669</v>
       </c>
       <c r="U22" t="n">
         <v>1887.747186237502</v>
       </c>
       <c r="V22" t="n">
-        <v>1664.992195357084</v>
+        <v>1664.992195357083</v>
       </c>
       <c r="W22" t="n">
-        <v>1407.504522645592</v>
+        <v>1407.504522645591</v>
       </c>
       <c r="X22" t="n">
-        <v>1211.444469073043</v>
+        <v>1211.444469073042</v>
       </c>
       <c r="Y22" t="n">
         <v>1022.581387254981</v>
@@ -5963,31 +5963,31 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2121.462641112807</v>
+        <v>2121.462641112806</v>
       </c>
       <c r="C23" t="n">
-        <v>1784.429621497864</v>
+        <v>1784.429621497863</v>
       </c>
       <c r="D23" t="n">
-        <v>1458.093420216583</v>
+        <v>1458.093420216581</v>
       </c>
       <c r="E23" t="n">
-        <v>1104.234664943807</v>
+        <v>1104.234664943805</v>
       </c>
       <c r="F23" t="n">
-        <v>725.1782574796681</v>
+        <v>725.1782574796662</v>
       </c>
       <c r="G23" t="n">
-        <v>342.8002736162838</v>
+        <v>342.8002736162839</v>
       </c>
       <c r="H23" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="I23" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J23" t="n">
-        <v>337.4933016076837</v>
+        <v>337.4933016076836</v>
       </c>
       <c r="K23" t="n">
         <v>766.683188695145</v>
@@ -6011,28 +6011,28 @@
         <v>4142.907144767228</v>
       </c>
       <c r="R23" t="n">
-        <v>4249.020448755812</v>
+        <v>4249.020448755811</v>
       </c>
       <c r="S23" t="n">
-        <v>4188.091007924548</v>
+        <v>4188.091007924546</v>
       </c>
       <c r="T23" t="n">
-        <v>4017.391409283566</v>
+        <v>4017.391409283564</v>
       </c>
       <c r="U23" t="n">
-        <v>3795.851627400163</v>
+        <v>3795.851627400161</v>
       </c>
       <c r="V23" t="n">
-        <v>3496.718237382061</v>
+        <v>3496.718237382059</v>
       </c>
       <c r="W23" t="n">
-        <v>3175.879079437415</v>
+        <v>3175.879079437413</v>
       </c>
       <c r="X23" t="n">
-        <v>2834.342818501804</v>
+        <v>2834.342818501802</v>
       </c>
       <c r="Y23" t="n">
-        <v>2476.132983851461</v>
+        <v>2476.132983851458</v>
       </c>
     </row>
     <row r="24">
@@ -6060,34 +6060,34 @@
         <v>176.4447347764803</v>
       </c>
       <c r="H24" t="n">
-        <v>89.89576342177179</v>
+        <v>89.89576342177176</v>
       </c>
       <c r="I24" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J24" t="n">
-        <v>216.557510983586</v>
+        <v>216.5575109835859</v>
       </c>
       <c r="K24" t="n">
         <v>519.5985603334505</v>
       </c>
       <c r="L24" t="n">
-        <v>973.3971899277778</v>
+        <v>519.5985603334505</v>
       </c>
       <c r="M24" t="n">
-        <v>1522.315654538067</v>
+        <v>1068.51702494374</v>
       </c>
       <c r="N24" t="n">
-        <v>2100.171002464469</v>
+        <v>1646.372372870142</v>
       </c>
       <c r="O24" t="n">
-        <v>2100.171002464469</v>
+        <v>1934.929714729833</v>
       </c>
       <c r="P24" t="n">
-        <v>2487.272558016625</v>
+        <v>2322.031270281988</v>
       </c>
       <c r="Q24" t="n">
-        <v>2555.644190323788</v>
+        <v>2530.879212293268</v>
       </c>
       <c r="R24" t="n">
         <v>2555.644190323788</v>
@@ -6121,16 +6121,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>872.8624197502106</v>
+        <v>872.8624197502102</v>
       </c>
       <c r="C25" t="n">
-        <v>735.8557341477724</v>
+        <v>735.8557341477718</v>
       </c>
       <c r="D25" t="n">
-        <v>617.6685920609053</v>
+        <v>617.6685920609048</v>
       </c>
       <c r="E25" t="n">
-        <v>501.6849958039809</v>
+        <v>501.6849958039803</v>
       </c>
       <c r="F25" t="n">
         <v>386.7245456315385</v>
@@ -6139,10 +6139,10 @@
         <v>251.2943450749443</v>
       </c>
       <c r="H25" t="n">
-        <v>140.0574709897932</v>
+        <v>140.0574709897931</v>
       </c>
       <c r="I25" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J25" t="n">
         <v>185.1742787042785</v>
@@ -6151,28 +6151,28 @@
         <v>459.5287020443612</v>
       </c>
       <c r="L25" t="n">
-        <v>857.3827676902789</v>
+        <v>857.3827676902783</v>
       </c>
       <c r="M25" t="n">
-        <v>1285.552079040894</v>
+        <v>1285.552079040893</v>
       </c>
       <c r="N25" t="n">
-        <v>1709.719201354974</v>
+        <v>1709.719201354973</v>
       </c>
       <c r="O25" t="n">
-        <v>2087.878830313936</v>
+        <v>2087.878830313935</v>
       </c>
       <c r="P25" t="n">
-        <v>2392.455631028689</v>
+        <v>2392.455631028688</v>
       </c>
       <c r="Q25" t="n">
-        <v>2529.521427597206</v>
+        <v>2529.521427597205</v>
       </c>
       <c r="R25" t="n">
         <v>2487.049233352543</v>
       </c>
       <c r="S25" t="n">
-        <v>2333.272818966197</v>
+        <v>2333.272818966196</v>
       </c>
       <c r="T25" t="n">
         <v>2144.901839127669</v>
@@ -6190,7 +6190,7 @@
         <v>1211.444469073043</v>
       </c>
       <c r="Y25" t="n">
-        <v>1022.581387254982</v>
+        <v>1022.581387254981</v>
       </c>
     </row>
     <row r="26">
@@ -6203,28 +6203,28 @@
         <v>2121.462641112807</v>
       </c>
       <c r="C26" t="n">
-        <v>1784.429621497864</v>
+        <v>1784.429621497863</v>
       </c>
       <c r="D26" t="n">
         <v>1458.093420216582</v>
       </c>
       <c r="E26" t="n">
-        <v>1104.234664943807</v>
+        <v>1104.234664943806</v>
       </c>
       <c r="F26" t="n">
-        <v>725.1782574796675</v>
+        <v>725.1782574796671</v>
       </c>
       <c r="G26" t="n">
-        <v>342.8002736162838</v>
+        <v>342.8002736162839</v>
       </c>
       <c r="H26" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="I26" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J26" t="n">
-        <v>337.4933016076837</v>
+        <v>337.4933016076836</v>
       </c>
       <c r="K26" t="n">
         <v>766.683188695145</v>
@@ -6248,19 +6248,19 @@
         <v>4142.907144767228</v>
       </c>
       <c r="R26" t="n">
-        <v>4249.020448755812</v>
+        <v>4249.020448755811</v>
       </c>
       <c r="S26" t="n">
-        <v>4188.091007924548</v>
+        <v>4188.091007924547</v>
       </c>
       <c r="T26" t="n">
-        <v>4017.391409283566</v>
+        <v>4017.391409283565</v>
       </c>
       <c r="U26" t="n">
-        <v>3795.851627400162</v>
+        <v>3795.851627400161</v>
       </c>
       <c r="V26" t="n">
-        <v>3496.71823738206</v>
+        <v>3496.718237382059</v>
       </c>
       <c r="W26" t="n">
         <v>3175.879079437414</v>
@@ -6297,34 +6297,34 @@
         <v>176.4447347764803</v>
       </c>
       <c r="H27" t="n">
-        <v>89.89576342177179</v>
+        <v>89.89576342177176</v>
       </c>
       <c r="I27" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J27" t="n">
-        <v>216.557510983586</v>
+        <v>216.5575109835859</v>
       </c>
       <c r="K27" t="n">
-        <v>396.8707822608525</v>
+        <v>519.5985603334505</v>
       </c>
       <c r="L27" t="n">
-        <v>850.66941185518</v>
+        <v>973.3971899277778</v>
       </c>
       <c r="M27" t="n">
-        <v>850.66941185518</v>
+        <v>1522.315654538067</v>
       </c>
       <c r="N27" t="n">
-        <v>1428.524759781582</v>
+        <v>2100.171002464469</v>
       </c>
       <c r="O27" t="n">
-        <v>1934.929714729833</v>
+        <v>2168.542634771632</v>
       </c>
       <c r="P27" t="n">
-        <v>2322.031270281988</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="Q27" t="n">
-        <v>2530.879212293268</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="R27" t="n">
         <v>2555.644190323788</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>872.8624197502111</v>
+        <v>872.8624197502096</v>
       </c>
       <c r="C28" t="n">
-        <v>735.8557341477729</v>
+        <v>735.8557341477713</v>
       </c>
       <c r="D28" t="n">
-        <v>617.6685920609058</v>
+        <v>617.6685920609042</v>
       </c>
       <c r="E28" t="n">
-        <v>501.6849958039813</v>
+        <v>501.6849958039797</v>
       </c>
       <c r="F28" t="n">
-        <v>386.7245456315385</v>
+        <v>386.7245456315379</v>
       </c>
       <c r="G28" t="n">
-        <v>251.2943450749444</v>
+        <v>251.2943450749437</v>
       </c>
       <c r="H28" t="n">
-        <v>140.0574709897932</v>
+        <v>140.0574709897926</v>
       </c>
       <c r="I28" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J28" t="n">
-        <v>185.1742787042785</v>
+        <v>185.1742787042784</v>
       </c>
       <c r="K28" t="n">
-        <v>459.5287020443612</v>
+        <v>459.5287020443611</v>
       </c>
       <c r="L28" t="n">
-        <v>857.3827676902788</v>
+        <v>857.3827676902786</v>
       </c>
       <c r="M28" t="n">
-        <v>1285.552079040894</v>
+        <v>1285.552079040893</v>
       </c>
       <c r="N28" t="n">
-        <v>1709.719201354974</v>
+        <v>1709.719201354973</v>
       </c>
       <c r="O28" t="n">
-        <v>2087.878830313936</v>
+        <v>2087.878830313935</v>
       </c>
       <c r="P28" t="n">
-        <v>2392.455631028689</v>
+        <v>2392.455631028688</v>
       </c>
       <c r="Q28" t="n">
-        <v>2529.521427597206</v>
+        <v>2529.521427597205</v>
       </c>
       <c r="R28" t="n">
-        <v>2487.049233352544</v>
+        <v>2487.049233352543</v>
       </c>
       <c r="S28" t="n">
-        <v>2333.272818966197</v>
+        <v>2333.272818966196</v>
       </c>
       <c r="T28" t="n">
-        <v>2144.90183912767</v>
+        <v>2144.901839127669</v>
       </c>
       <c r="U28" t="n">
-        <v>1887.747186237503</v>
+        <v>1887.747186237501</v>
       </c>
       <c r="V28" t="n">
-        <v>1664.992195357084</v>
+        <v>1664.992195357083</v>
       </c>
       <c r="W28" t="n">
-        <v>1407.504522645592</v>
+        <v>1407.504522645591</v>
       </c>
       <c r="X28" t="n">
-        <v>1211.444469073044</v>
+        <v>1211.444469073042</v>
       </c>
       <c r="Y28" t="n">
-        <v>1022.581387254982</v>
+        <v>1022.581387254981</v>
       </c>
     </row>
     <row r="29">
@@ -6446,22 +6446,22 @@
         <v>1458.093420216582</v>
       </c>
       <c r="E29" t="n">
-        <v>1104.234664943806</v>
+        <v>1104.234664943807</v>
       </c>
       <c r="F29" t="n">
-        <v>725.1782574796674</v>
+        <v>725.178257479668</v>
       </c>
       <c r="G29" t="n">
-        <v>342.8002736162838</v>
+        <v>342.8002736162839</v>
       </c>
       <c r="H29" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="I29" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="J29" t="n">
-        <v>337.4933016076836</v>
+        <v>337.4933016076839</v>
       </c>
       <c r="K29" t="n">
         <v>766.683188695145</v>
@@ -6473,7 +6473,7 @@
         <v>2001.213713746739</v>
       </c>
       <c r="N29" t="n">
-        <v>2681.771598889755</v>
+        <v>2681.771598889756</v>
       </c>
       <c r="O29" t="n">
         <v>3311.067850233288</v>
@@ -6482,28 +6482,28 @@
         <v>3813.656640612704</v>
       </c>
       <c r="Q29" t="n">
-        <v>4142.907144767228</v>
+        <v>4142.907144767229</v>
       </c>
       <c r="R29" t="n">
-        <v>4249.020448755811</v>
+        <v>4249.020448755812</v>
       </c>
       <c r="S29" t="n">
-        <v>4188.091007924547</v>
+        <v>4188.091007924548</v>
       </c>
       <c r="T29" t="n">
-        <v>4017.391409283565</v>
+        <v>4017.391409283566</v>
       </c>
       <c r="U29" t="n">
-        <v>3795.851627400162</v>
+        <v>3795.851627400163</v>
       </c>
       <c r="V29" t="n">
-        <v>3496.71823738206</v>
+        <v>3496.718237382061</v>
       </c>
       <c r="W29" t="n">
-        <v>3175.879079437414</v>
+        <v>3175.879079437415</v>
       </c>
       <c r="X29" t="n">
-        <v>2834.342818501803</v>
+        <v>2834.342818501804</v>
       </c>
       <c r="Y29" t="n">
         <v>2476.13298385146</v>
@@ -6534,34 +6534,34 @@
         <v>176.4447347764803</v>
       </c>
       <c r="H30" t="n">
-        <v>89.89576342177176</v>
+        <v>89.89576342177179</v>
       </c>
       <c r="I30" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="J30" t="n">
-        <v>84.98040897511622</v>
+        <v>216.557510983586</v>
       </c>
       <c r="K30" t="n">
-        <v>84.98040897511622</v>
+        <v>519.5985603334505</v>
       </c>
       <c r="L30" t="n">
-        <v>538.7790385694436</v>
+        <v>973.3971899277778</v>
       </c>
       <c r="M30" t="n">
-        <v>1087.697503179733</v>
+        <v>973.3971899277778</v>
       </c>
       <c r="N30" t="n">
-        <v>1665.552851106135</v>
+        <v>1551.25253785418</v>
       </c>
       <c r="O30" t="n">
-        <v>2168.542634771632</v>
+        <v>2057.65749280243</v>
       </c>
       <c r="P30" t="n">
-        <v>2555.644190323788</v>
+        <v>2444.759048354586</v>
       </c>
       <c r="Q30" t="n">
-        <v>2555.644190323788</v>
+        <v>2530.879212293268</v>
       </c>
       <c r="R30" t="n">
         <v>2555.644190323788</v>
@@ -6595,37 +6595,37 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>872.8624197502106</v>
+        <v>872.8624197502101</v>
       </c>
       <c r="C31" t="n">
-        <v>735.8557341477723</v>
+        <v>735.8557341477717</v>
       </c>
       <c r="D31" t="n">
-        <v>617.6685920609051</v>
+        <v>617.6685920609046</v>
       </c>
       <c r="E31" t="n">
-        <v>501.6849958039807</v>
+        <v>501.6849958039801</v>
       </c>
       <c r="F31" t="n">
-        <v>386.7245456315392</v>
+        <v>386.7245456315384</v>
       </c>
       <c r="G31" t="n">
-        <v>251.294345074945</v>
+        <v>251.2943450749442</v>
       </c>
       <c r="H31" t="n">
-        <v>140.0574709897931</v>
+        <v>140.0574709897932</v>
       </c>
       <c r="I31" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="J31" t="n">
-        <v>185.1742787042786</v>
+        <v>185.1742787042785</v>
       </c>
       <c r="K31" t="n">
-        <v>459.5287020443614</v>
+        <v>459.5287020443612</v>
       </c>
       <c r="L31" t="n">
-        <v>857.3827676902788</v>
+        <v>857.3827676902787</v>
       </c>
       <c r="M31" t="n">
         <v>1285.552079040893</v>
@@ -6640,13 +6640,13 @@
         <v>2392.455631028689</v>
       </c>
       <c r="Q31" t="n">
-        <v>2529.521427597206</v>
+        <v>2529.521427597205</v>
       </c>
       <c r="R31" t="n">
-        <v>2487.049233352544</v>
+        <v>2487.049233352543</v>
       </c>
       <c r="S31" t="n">
-        <v>2333.272818966197</v>
+        <v>2333.272818966196</v>
       </c>
       <c r="T31" t="n">
         <v>2144.901839127669</v>
@@ -6664,7 +6664,7 @@
         <v>1211.444469073043</v>
       </c>
       <c r="Y31" t="n">
-        <v>1022.581387254982</v>
+        <v>1022.581387254981</v>
       </c>
     </row>
     <row r="32">
@@ -6683,13 +6683,13 @@
         <v>1458.093420216582</v>
       </c>
       <c r="E32" t="n">
-        <v>1104.234664943806</v>
+        <v>1104.234664943807</v>
       </c>
       <c r="F32" t="n">
         <v>725.1782574796675</v>
       </c>
       <c r="G32" t="n">
-        <v>342.8002736162838</v>
+        <v>342.800273616284</v>
       </c>
       <c r="H32" t="n">
         <v>84.98040897511625</v>
@@ -6701,19 +6701,19 @@
         <v>337.4933016076839</v>
       </c>
       <c r="K32" t="n">
-        <v>766.6831886951445</v>
+        <v>766.683188695145</v>
       </c>
       <c r="L32" t="n">
         <v>1336.032957050963</v>
       </c>
       <c r="M32" t="n">
-        <v>2001.213713746739</v>
+        <v>2001.213713746738</v>
       </c>
       <c r="N32" t="n">
-        <v>2681.771598889755</v>
+        <v>2681.771598889756</v>
       </c>
       <c r="O32" t="n">
-        <v>3311.067850233287</v>
+        <v>3311.067850233288</v>
       </c>
       <c r="P32" t="n">
         <v>3813.656640612704</v>
@@ -6743,7 +6743,7 @@
         <v>2834.342818501804</v>
       </c>
       <c r="Y32" t="n">
-        <v>2476.13298385146</v>
+        <v>2476.132983851461</v>
       </c>
     </row>
     <row r="33">
@@ -6780,25 +6780,25 @@
         <v>84.98040897511625</v>
       </c>
       <c r="K33" t="n">
-        <v>84.98040897511625</v>
+        <v>388.0214583249807</v>
       </c>
       <c r="L33" t="n">
-        <v>538.7790385694437</v>
+        <v>841.8200879193082</v>
       </c>
       <c r="M33" t="n">
-        <v>1087.697503179733</v>
+        <v>1390.738552529597</v>
       </c>
       <c r="N33" t="n">
-        <v>1665.552851106135</v>
+        <v>1968.593900456</v>
       </c>
       <c r="O33" t="n">
-        <v>2168.542634771632</v>
+        <v>1968.593900456</v>
       </c>
       <c r="P33" t="n">
-        <v>2555.644190323788</v>
+        <v>2322.031270281988</v>
       </c>
       <c r="Q33" t="n">
-        <v>2555.644190323788</v>
+        <v>2530.879212293268</v>
       </c>
       <c r="R33" t="n">
         <v>2555.644190323788</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>872.8624197502099</v>
+        <v>872.8624197502087</v>
       </c>
       <c r="C34" t="n">
-        <v>735.8557341477717</v>
+        <v>735.8557341477704</v>
       </c>
       <c r="D34" t="n">
-        <v>617.6685920609046</v>
+        <v>617.6685920609032</v>
       </c>
       <c r="E34" t="n">
-        <v>501.6849958039802</v>
+        <v>501.6849958039787</v>
       </c>
       <c r="F34" t="n">
-        <v>386.7245456315384</v>
+        <v>386.7245456315368</v>
       </c>
       <c r="G34" t="n">
-        <v>251.2943450749443</v>
+        <v>251.2943450749426</v>
       </c>
       <c r="H34" t="n">
-        <v>140.0574709897932</v>
+        <v>140.0574709897914</v>
       </c>
       <c r="I34" t="n">
         <v>84.98040897511625</v>
       </c>
       <c r="J34" t="n">
-        <v>185.1742787042785</v>
+        <v>185.1742787042784</v>
       </c>
       <c r="K34" t="n">
-        <v>459.5287020443612</v>
+        <v>459.5287020443611</v>
       </c>
       <c r="L34" t="n">
-        <v>857.3827676902787</v>
+        <v>857.3827676902786</v>
       </c>
       <c r="M34" t="n">
-        <v>1285.552079040894</v>
+        <v>1285.552079040893</v>
       </c>
       <c r="N34" t="n">
         <v>1709.719201354973</v>
       </c>
       <c r="O34" t="n">
-        <v>2087.878830313936</v>
+        <v>2087.878830313935</v>
       </c>
       <c r="P34" t="n">
-        <v>2392.455631028689</v>
+        <v>2392.455631028688</v>
       </c>
       <c r="Q34" t="n">
-        <v>2529.521427597206</v>
+        <v>2529.521427597205</v>
       </c>
       <c r="R34" t="n">
-        <v>2487.049233352544</v>
+        <v>2487.049233352542</v>
       </c>
       <c r="S34" t="n">
-        <v>2333.272818966197</v>
+        <v>2333.272818966195</v>
       </c>
       <c r="T34" t="n">
-        <v>2144.901839127669</v>
+        <v>2144.901839127667</v>
       </c>
       <c r="U34" t="n">
-        <v>1887.747186237502</v>
+        <v>1887.747186237501</v>
       </c>
       <c r="V34" t="n">
-        <v>1664.992195357084</v>
+        <v>1664.992195357083</v>
       </c>
       <c r="W34" t="n">
-        <v>1407.504522645592</v>
+        <v>1407.504522645591</v>
       </c>
       <c r="X34" t="n">
-        <v>1211.444469073042</v>
+        <v>1211.444469073041</v>
       </c>
       <c r="Y34" t="n">
-        <v>1022.581387254981</v>
+        <v>1022.58138725498</v>
       </c>
     </row>
     <row r="35">
@@ -6926,7 +6926,7 @@
         <v>725.1782574796684</v>
       </c>
       <c r="G35" t="n">
-        <v>342.8002736162838</v>
+        <v>342.8002736162839</v>
       </c>
       <c r="H35" t="n">
         <v>84.98040897511625</v>
@@ -6938,7 +6938,7 @@
         <v>337.4933016076839</v>
       </c>
       <c r="K35" t="n">
-        <v>766.6831886951454</v>
+        <v>766.6831886951445</v>
       </c>
       <c r="L35" t="n">
         <v>1336.032957050963</v>
@@ -6950,7 +6950,7 @@
         <v>2681.771598889755</v>
       </c>
       <c r="O35" t="n">
-        <v>3311.067850233288</v>
+        <v>3311.067850233287</v>
       </c>
       <c r="P35" t="n">
         <v>3813.656640612704</v>
@@ -7014,22 +7014,22 @@
         <v>84.98040897511625</v>
       </c>
       <c r="J36" t="n">
-        <v>84.98040897511625</v>
+        <v>216.557510983586</v>
       </c>
       <c r="K36" t="n">
-        <v>84.98040897511625</v>
+        <v>519.5985603334505</v>
       </c>
       <c r="L36" t="n">
-        <v>538.7790385694437</v>
+        <v>973.3971899277778</v>
       </c>
       <c r="M36" t="n">
-        <v>1087.697503179733</v>
+        <v>1084.28233189698</v>
       </c>
       <c r="N36" t="n">
-        <v>1665.552851106135</v>
+        <v>1662.137679823382</v>
       </c>
       <c r="O36" t="n">
-        <v>2171.957806054385</v>
+        <v>2168.542634771632</v>
       </c>
       <c r="P36" t="n">
         <v>2555.644190323788</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>872.8624197502102</v>
+        <v>872.8624197502098</v>
       </c>
       <c r="C37" t="n">
-        <v>735.8557341477718</v>
+        <v>735.8557341477715</v>
       </c>
       <c r="D37" t="n">
-        <v>617.6685920609048</v>
+        <v>617.6685920609044</v>
       </c>
       <c r="E37" t="n">
-        <v>501.6849958039803</v>
+        <v>501.6849958039799</v>
       </c>
       <c r="F37" t="n">
-        <v>386.7245456315385</v>
+        <v>386.7245456315381</v>
       </c>
       <c r="G37" t="n">
-        <v>251.2943450749444</v>
+        <v>251.294345074944</v>
       </c>
       <c r="H37" t="n">
         <v>140.0574709897932</v>
@@ -7099,7 +7099,7 @@
         <v>459.5287020443612</v>
       </c>
       <c r="L37" t="n">
-        <v>857.3827676902788</v>
+        <v>857.3827676902787</v>
       </c>
       <c r="M37" t="n">
         <v>1285.552079040893</v>
@@ -7108,10 +7108,10 @@
         <v>1709.719201354973</v>
       </c>
       <c r="O37" t="n">
-        <v>2087.878830313936</v>
+        <v>2087.878830313935</v>
       </c>
       <c r="P37" t="n">
-        <v>2392.455631028689</v>
+        <v>2392.455631028688</v>
       </c>
       <c r="Q37" t="n">
         <v>2529.521427597205</v>
@@ -7129,10 +7129,10 @@
         <v>1887.747186237502</v>
       </c>
       <c r="V37" t="n">
-        <v>1664.992195357083</v>
+        <v>1664.992195357084</v>
       </c>
       <c r="W37" t="n">
-        <v>1407.504522645591</v>
+        <v>1407.504522645592</v>
       </c>
       <c r="X37" t="n">
         <v>1211.444469073043</v>
@@ -7160,49 +7160,49 @@
         <v>1104.234664943806</v>
       </c>
       <c r="F38" t="n">
-        <v>725.1782574796671</v>
+        <v>725.1782574796675</v>
       </c>
       <c r="G38" t="n">
         <v>342.8002736162839</v>
       </c>
       <c r="H38" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511626</v>
       </c>
       <c r="I38" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511626</v>
       </c>
       <c r="J38" t="n">
         <v>337.4933016076839</v>
       </c>
       <c r="K38" t="n">
-        <v>766.6831886951445</v>
+        <v>766.6831886951454</v>
       </c>
       <c r="L38" t="n">
-        <v>1336.032957050963</v>
+        <v>1336.032957050964</v>
       </c>
       <c r="M38" t="n">
-        <v>2001.213713746739</v>
+        <v>2001.21371374674</v>
       </c>
       <c r="N38" t="n">
-        <v>2681.771598889755</v>
+        <v>2681.771598889757</v>
       </c>
       <c r="O38" t="n">
-        <v>3311.067850233287</v>
+        <v>3311.067850233289</v>
       </c>
       <c r="P38" t="n">
         <v>3813.656640612704</v>
       </c>
       <c r="Q38" t="n">
-        <v>4142.907144767229</v>
+        <v>4142.90714476723</v>
       </c>
       <c r="R38" t="n">
-        <v>4249.020448755812</v>
+        <v>4249.020448755813</v>
       </c>
       <c r="S38" t="n">
-        <v>4188.091007924547</v>
+        <v>4188.091007924549</v>
       </c>
       <c r="T38" t="n">
-        <v>4017.391409283565</v>
+        <v>4017.391409283567</v>
       </c>
       <c r="U38" t="n">
         <v>3795.851627400162</v>
@@ -7248,31 +7248,31 @@
         <v>89.89576342177179</v>
       </c>
       <c r="I39" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511626</v>
       </c>
       <c r="J39" t="n">
-        <v>84.98040897511625</v>
+        <v>216.557510983586</v>
       </c>
       <c r="K39" t="n">
-        <v>84.98040897511625</v>
+        <v>519.5985603334506</v>
       </c>
       <c r="L39" t="n">
-        <v>538.7790385694437</v>
+        <v>973.3971899277781</v>
       </c>
       <c r="M39" t="n">
-        <v>1087.697503179733</v>
+        <v>973.3971899277781</v>
       </c>
       <c r="N39" t="n">
-        <v>1665.552851106135</v>
+        <v>1551.252537854181</v>
       </c>
       <c r="O39" t="n">
-        <v>2171.957806054385</v>
+        <v>1934.929714729833</v>
       </c>
       <c r="P39" t="n">
-        <v>2555.644190323788</v>
+        <v>2322.031270281988</v>
       </c>
       <c r="Q39" t="n">
-        <v>2555.644190323788</v>
+        <v>2530.879212293268</v>
       </c>
       <c r="R39" t="n">
         <v>2555.644190323788</v>
@@ -7306,19 +7306,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>872.8624197502088</v>
+        <v>872.8624197502096</v>
       </c>
       <c r="C40" t="n">
-        <v>735.8557341477705</v>
+        <v>735.8557341477713</v>
       </c>
       <c r="D40" t="n">
-        <v>617.6685920609033</v>
+        <v>617.6685920609042</v>
       </c>
       <c r="E40" t="n">
-        <v>501.6849958039804</v>
+        <v>501.6849958039797</v>
       </c>
       <c r="F40" t="n">
-        <v>386.7245456315387</v>
+        <v>386.7245456315379</v>
       </c>
       <c r="G40" t="n">
         <v>251.2943450749444</v>
@@ -7327,22 +7327,22 @@
         <v>140.0574709897932</v>
       </c>
       <c r="I40" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511626</v>
       </c>
       <c r="J40" t="n">
         <v>185.1742787042785</v>
       </c>
       <c r="K40" t="n">
-        <v>459.5287020443611</v>
+        <v>459.5287020443614</v>
       </c>
       <c r="L40" t="n">
-        <v>857.3827676902786</v>
+        <v>857.3827676902789</v>
       </c>
       <c r="M40" t="n">
-        <v>1285.552079040893</v>
+        <v>1285.552079040894</v>
       </c>
       <c r="N40" t="n">
-        <v>1709.719201354973</v>
+        <v>1709.719201354974</v>
       </c>
       <c r="O40" t="n">
         <v>2087.878830313936</v>
@@ -7351,7 +7351,7 @@
         <v>2392.455631028689</v>
       </c>
       <c r="Q40" t="n">
-        <v>2529.521427597206</v>
+        <v>2529.521427597205</v>
       </c>
       <c r="R40" t="n">
         <v>2487.049233352543</v>
@@ -7363,7 +7363,7 @@
         <v>2144.901839127669</v>
       </c>
       <c r="U40" t="n">
-        <v>1887.747186237501</v>
+        <v>1887.747186237502</v>
       </c>
       <c r="V40" t="n">
         <v>1664.992195357083</v>
@@ -7375,7 +7375,7 @@
         <v>1211.444469073042</v>
       </c>
       <c r="Y40" t="n">
-        <v>1022.58138725498</v>
+        <v>1022.581387254981</v>
       </c>
     </row>
     <row r="41">
@@ -7385,10 +7385,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2121.462641112807</v>
+        <v>2121.462641112808</v>
       </c>
       <c r="C41" t="n">
-        <v>1784.429621497864</v>
+        <v>1784.429621497865</v>
       </c>
       <c r="D41" t="n">
         <v>1458.093420216583</v>
@@ -7397,13 +7397,13 @@
         <v>1104.234664943807</v>
       </c>
       <c r="F41" t="n">
-        <v>725.1782574796681</v>
+        <v>725.1782574796678</v>
       </c>
       <c r="G41" t="n">
-        <v>342.8002736162844</v>
+        <v>342.800273616284</v>
       </c>
       <c r="H41" t="n">
-        <v>84.98040897511675</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="I41" t="n">
         <v>84.98040897511625</v>
@@ -7436,22 +7436,22 @@
         <v>4249.020448755812</v>
       </c>
       <c r="S41" t="n">
-        <v>4188.091007924548</v>
+        <v>4188.09100792455</v>
       </c>
       <c r="T41" t="n">
-        <v>4017.391409283566</v>
+        <v>4017.391409283567</v>
       </c>
       <c r="U41" t="n">
-        <v>3795.851627400163</v>
+        <v>3795.851627400164</v>
       </c>
       <c r="V41" t="n">
-        <v>3496.718237382061</v>
+        <v>3496.718237382062</v>
       </c>
       <c r="W41" t="n">
-        <v>3175.879079437415</v>
+        <v>3175.879079437416</v>
       </c>
       <c r="X41" t="n">
-        <v>2834.342818501804</v>
+        <v>2834.342818501805</v>
       </c>
       <c r="Y41" t="n">
         <v>2476.132983851461</v>
@@ -7488,28 +7488,28 @@
         <v>84.98040897511625</v>
       </c>
       <c r="J42" t="n">
-        <v>84.98040897511625</v>
+        <v>216.557510983586</v>
       </c>
       <c r="K42" t="n">
-        <v>84.98040897511625</v>
+        <v>519.5985603334505</v>
       </c>
       <c r="L42" t="n">
-        <v>535.3638672866908</v>
+        <v>808.1559021931411</v>
       </c>
       <c r="M42" t="n">
-        <v>1084.28233189698</v>
+        <v>1357.07436680343</v>
       </c>
       <c r="N42" t="n">
-        <v>1662.137679823382</v>
+        <v>1934.929714729833</v>
       </c>
       <c r="O42" t="n">
-        <v>2168.542634771632</v>
+        <v>1934.929714729833</v>
       </c>
       <c r="P42" t="n">
-        <v>2555.644190323788</v>
+        <v>2322.031270281988</v>
       </c>
       <c r="Q42" t="n">
-        <v>2555.644190323788</v>
+        <v>2530.879212293268</v>
       </c>
       <c r="R42" t="n">
         <v>2555.644190323788</v>
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>872.8624197502091</v>
+        <v>872.8624197502077</v>
       </c>
       <c r="C43" t="n">
-        <v>735.8557341477708</v>
+        <v>735.8557341477692</v>
       </c>
       <c r="D43" t="n">
-        <v>617.6685920609037</v>
+        <v>617.6685920609019</v>
       </c>
       <c r="E43" t="n">
-        <v>501.6849958039792</v>
+        <v>501.6849958039772</v>
       </c>
       <c r="F43" t="n">
-        <v>386.7245456315375</v>
+        <v>386.724545631539</v>
       </c>
       <c r="G43" t="n">
-        <v>251.2943450749433</v>
+        <v>251.2943450749447</v>
       </c>
       <c r="H43" t="n">
-        <v>140.0574709897932</v>
+        <v>140.0574709897933</v>
       </c>
       <c r="I43" t="n">
         <v>84.98040897511625</v>
       </c>
       <c r="J43" t="n">
-        <v>185.1742787042785</v>
+        <v>185.1742787042784</v>
       </c>
       <c r="K43" t="n">
-        <v>459.5287020443612</v>
+        <v>459.5287020443609</v>
       </c>
       <c r="L43" t="n">
-        <v>857.3827676902787</v>
+        <v>857.3827676902782</v>
       </c>
       <c r="M43" t="n">
         <v>1285.552079040893</v>
@@ -7597,10 +7597,10 @@
         <v>2333.272818966195</v>
       </c>
       <c r="T43" t="n">
-        <v>2144.901839127668</v>
+        <v>2144.901839127667</v>
       </c>
       <c r="U43" t="n">
-        <v>1887.747186237501</v>
+        <v>1887.7471862375</v>
       </c>
       <c r="V43" t="n">
         <v>1664.992195357082</v>
@@ -7609,10 +7609,10 @@
         <v>1407.50452264559</v>
       </c>
       <c r="X43" t="n">
-        <v>1211.444469073042</v>
+        <v>1211.444469073041</v>
       </c>
       <c r="Y43" t="n">
-        <v>1022.58138725498</v>
+        <v>1022.581387254979</v>
       </c>
     </row>
     <row r="44">
@@ -7634,10 +7634,10 @@
         <v>1104.234664943806</v>
       </c>
       <c r="F44" t="n">
-        <v>725.1782574796671</v>
+        <v>725.1782574796666</v>
       </c>
       <c r="G44" t="n">
-        <v>342.8002736162839</v>
+        <v>342.800273616284</v>
       </c>
       <c r="H44" t="n">
         <v>84.98040897511625</v>
@@ -7649,7 +7649,7 @@
         <v>337.4933016076839</v>
       </c>
       <c r="K44" t="n">
-        <v>766.6831886951454</v>
+        <v>766.6831886951445</v>
       </c>
       <c r="L44" t="n">
         <v>1336.032957050963</v>
@@ -7661,7 +7661,7 @@
         <v>2681.771598889755</v>
       </c>
       <c r="O44" t="n">
-        <v>3311.067850233288</v>
+        <v>3311.067850233287</v>
       </c>
       <c r="P44" t="n">
         <v>3813.656640612704</v>
@@ -7679,10 +7679,10 @@
         <v>4017.391409283565</v>
       </c>
       <c r="U44" t="n">
-        <v>3795.851627400162</v>
+        <v>3795.851627400163</v>
       </c>
       <c r="V44" t="n">
-        <v>3496.71823738206</v>
+        <v>3496.718237382061</v>
       </c>
       <c r="W44" t="n">
         <v>3175.879079437414</v>
@@ -7725,28 +7725,28 @@
         <v>84.98040897511625</v>
       </c>
       <c r="J45" t="n">
-        <v>84.98040897511625</v>
+        <v>216.557510983586</v>
       </c>
       <c r="K45" t="n">
-        <v>84.98040897511625</v>
+        <v>519.5985603334505</v>
       </c>
       <c r="L45" t="n">
-        <v>538.7790385694437</v>
+        <v>519.5985603334505</v>
       </c>
       <c r="M45" t="n">
-        <v>1087.697503179733</v>
+        <v>1059.51735386646</v>
       </c>
       <c r="N45" t="n">
-        <v>1665.552851106135</v>
+        <v>1637.372701792862</v>
       </c>
       <c r="O45" t="n">
-        <v>2171.957806054385</v>
+        <v>2143.777656741112</v>
       </c>
       <c r="P45" t="n">
-        <v>2555.644190323788</v>
+        <v>2530.879212293268</v>
       </c>
       <c r="Q45" t="n">
-        <v>2555.644190323788</v>
+        <v>2530.879212293268</v>
       </c>
       <c r="R45" t="n">
         <v>2555.644190323788</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>872.8624197502105</v>
+        <v>872.8624197502079</v>
       </c>
       <c r="C46" t="n">
-        <v>735.8557341477722</v>
+        <v>735.8557341477695</v>
       </c>
       <c r="D46" t="n">
-        <v>617.668592060905</v>
+        <v>617.6685920609021</v>
       </c>
       <c r="E46" t="n">
-        <v>501.6849958039805</v>
+        <v>501.6849958039775</v>
       </c>
       <c r="F46" t="n">
-        <v>386.7245456315387</v>
+        <v>386.7245456315356</v>
       </c>
       <c r="G46" t="n">
-        <v>251.2943450749445</v>
+        <v>251.2943450749413</v>
       </c>
       <c r="H46" t="n">
-        <v>140.0574709897932</v>
+        <v>140.0574709897933</v>
       </c>
       <c r="I46" t="n">
         <v>84.98040897511625</v>
@@ -7819,37 +7819,37 @@
         <v>1709.719201354973</v>
       </c>
       <c r="O46" t="n">
-        <v>2087.878830313936</v>
+        <v>2087.878830313935</v>
       </c>
       <c r="P46" t="n">
-        <v>2392.455631028689</v>
+        <v>2392.455631028688</v>
       </c>
       <c r="Q46" t="n">
-        <v>2529.521427597205</v>
+        <v>2529.521427597204</v>
       </c>
       <c r="R46" t="n">
-        <v>2487.049233352543</v>
+        <v>2487.049233352542</v>
       </c>
       <c r="S46" t="n">
-        <v>2333.272818966196</v>
+        <v>2333.272818966195</v>
       </c>
       <c r="T46" t="n">
-        <v>2144.901839127669</v>
+        <v>2144.901839127667</v>
       </c>
       <c r="U46" t="n">
-        <v>1887.747186237502</v>
+        <v>1887.7471862375</v>
       </c>
       <c r="V46" t="n">
-        <v>1664.992195357083</v>
+        <v>1664.992195357082</v>
       </c>
       <c r="W46" t="n">
-        <v>1407.504522645591</v>
+        <v>1407.504522645589</v>
       </c>
       <c r="X46" t="n">
-        <v>1211.444469073042</v>
+        <v>1211.44446907304</v>
       </c>
       <c r="Y46" t="n">
-        <v>1022.581387254982</v>
+        <v>1022.581387254979</v>
       </c>
     </row>
   </sheetData>
@@ -7982,16 +7982,16 @@
         <v>77.60818424490023</v>
       </c>
       <c r="L2" t="n">
-        <v>50.47496544952261</v>
+        <v>57.35101119123405</v>
       </c>
       <c r="M2" t="n">
-        <v>24.17379379562163</v>
+        <v>30.77201950736493</v>
       </c>
       <c r="N2" t="n">
-        <v>26.50276426002979</v>
+        <v>19.9045385482865</v>
       </c>
       <c r="O2" t="n">
-        <v>39.14129792260681</v>
+        <v>32.26525218089537</v>
       </c>
       <c r="P2" t="n">
         <v>62.38714207052891</v>
@@ -8058,10 +8058,10 @@
         <v>67.48351302167279</v>
       </c>
       <c r="K3" t="n">
-        <v>36.39580497093574</v>
+        <v>42.99403068267904</v>
       </c>
       <c r="L3" t="n">
-        <v>8.746431405204433</v>
+        <v>2.148205693461136</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8137,13 +8137,13 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K4" t="n">
-        <v>67.82165278165036</v>
+        <v>74.69769852336179</v>
       </c>
       <c r="L4" t="n">
-        <v>63.45653465754863</v>
+        <v>56.58048891583719</v>
       </c>
       <c r="M4" t="n">
-        <v>56.36499742800063</v>
+        <v>63.24104316971207</v>
       </c>
       <c r="N4" t="n">
         <v>53.68609462837691</v>
@@ -8152,7 +8152,7 @@
         <v>70.88758571261646</v>
       </c>
       <c r="P4" t="n">
-        <v>80.90349281951899</v>
+        <v>74.02744707780755</v>
       </c>
       <c r="Q4" t="n">
         <v>65.34295837775146</v>
@@ -8213,28 +8213,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>52.41622624273612</v>
+        <v>98.30420645794972</v>
       </c>
       <c r="K5" t="n">
-        <v>82.78533078308865</v>
+        <v>40.6376575320877</v>
       </c>
       <c r="L5" t="n">
-        <v>52.08064589108844</v>
+        <v>50.13371393458539</v>
       </c>
       <c r="M5" t="n">
-        <v>6.682715781501905</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>25.21757465157254</v>
       </c>
       <c r="P5" t="n">
-        <v>13.29625413221311</v>
+        <v>28.36594393961252</v>
       </c>
       <c r="Q5" t="n">
-        <v>58.64427311383835</v>
+        <v>69.96098256656427</v>
       </c>
       <c r="R5" t="n">
         <v>65.71641987298243</v>
@@ -8292,10 +8292,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.22667148225996</v>
+        <v>55.52409550484361</v>
       </c>
       <c r="K6" t="n">
-        <v>6.901114150799145</v>
+        <v>15.95525556667874</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8313,7 +8313,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>36.47287293533336</v>
+        <v>43.63021144112579</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8374,22 +8374,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K7" t="n">
-        <v>105.5085955608794</v>
+        <v>92.48560745376842</v>
       </c>
       <c r="L7" t="n">
-        <v>87.05051798685041</v>
+        <v>77.79638413461721</v>
       </c>
       <c r="M7" t="n">
-        <v>32.36095924355929</v>
+        <v>76.72321921252843</v>
       </c>
       <c r="N7" t="n">
-        <v>23.65459310855491</v>
+        <v>66.34695168357581</v>
       </c>
       <c r="O7" t="n">
-        <v>97.84514065800776</v>
+        <v>49.01142011066445</v>
       </c>
       <c r="P7" t="n">
-        <v>110.984927697978</v>
+        <v>61.19225318659065</v>
       </c>
       <c r="Q7" t="n">
         <v>65.34295837775146</v>
@@ -8611,13 +8611,13 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K10" t="n">
-        <v>89.52419948887534</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L10" t="n">
         <v>162.4747015415544</v>
       </c>
       <c r="M10" t="n">
-        <v>171.4142040457085</v>
+        <v>154.1946371899313</v>
       </c>
       <c r="N10" t="n">
         <v>0</v>
@@ -9653,13 +9653,13 @@
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>-1.70530256582424e-13</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>7.673861546209082e-13</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9896,7 +9896,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>7.673861546209082e-13</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -23255,28 +23255,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>246.3441520879386</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>180.0572111198358</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292594</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23324,7 +23324,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>45.3904415970041</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -23479,7 +23479,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>91.26811680410441</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23498,22 +23498,22 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>323.5633663193912</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>218.7347190408937</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>28.7016826751539</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23561,7 +23561,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23650,13 +23650,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>21.42976360128336</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23665,13 +23665,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.7841840893281</v>
       </c>
       <c r="H16" t="n">
-        <v>143.4231041280592</v>
+        <v>142.6067563873508</v>
       </c>
       <c r="I16" t="n">
-        <v>91.84734793442584</v>
+        <v>89.08612265194787</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>82.19633390844243</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23707,7 +23707,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>181.8179050620989</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23741,7 +23741,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>190.1427937998489</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -23896,19 +23896,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>128.4053884229159</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>3.577438468521308</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>123.7061334728604</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>68.10791952309076</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23972,7 +23972,7 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>-9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -24130,7 +24130,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>-4.334310688136611e-13</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -24142,7 +24142,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>5.400124791776761e-13</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24610,7 +24610,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>-8.739675649849232e-13</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24853,7 +24853,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>-6.110667527536862e-13</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -25093,7 +25093,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>1.800799509510398e-12</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25327,7 +25327,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -25555,7 +25555,7 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>1.676880856393836e-12</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -25795,7 +25795,7 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>3.609557097661309e-12</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -26038,7 +26038,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>3.382183422218077e-12</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1125685.801817941</v>
+        <v>1127117.585103554</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>929841.3266966711</v>
+        <v>929841.3266966707</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>980294.9411842657</v>
+        <v>1011218.704714351</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1117555.548791968</v>
+        <v>1086631.785261885</v>
       </c>
     </row>
     <row r="8">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>1117555.548791968</v>
+        <v>1117555.548791967</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>1117555.548791968</v>
+        <v>1117555.548791967</v>
       </c>
     </row>
   </sheetData>
@@ -26314,19 +26314,19 @@
         <v>328185.7873734562</v>
       </c>
       <c r="C2" t="n">
-        <v>328416.7079457132</v>
+        <v>328416.7079457134</v>
       </c>
       <c r="D2" t="n">
-        <v>328416.7079457131</v>
+        <v>328416.7079457133</v>
       </c>
       <c r="E2" t="n">
         <v>272797.6791767364</v>
       </c>
       <c r="F2" t="n">
-        <v>287746.8982841721</v>
+        <v>296909.4948856786</v>
       </c>
       <c r="G2" t="n">
-        <v>328416.7079457135</v>
+        <v>319254.1113442073</v>
       </c>
       <c r="H2" t="n">
         <v>328416.7079457134</v>
@@ -26338,19 +26338,19 @@
         <v>328416.7079457131</v>
       </c>
       <c r="K2" t="n">
-        <v>328416.7079457133</v>
+        <v>328416.7079457135</v>
       </c>
       <c r="L2" t="n">
-        <v>328416.7079457133</v>
+        <v>328416.7079457134</v>
       </c>
       <c r="M2" t="n">
-        <v>328416.7079457134</v>
+        <v>328416.7079457135</v>
       </c>
       <c r="N2" t="n">
-        <v>328416.7079457134</v>
+        <v>328416.7079457132</v>
       </c>
       <c r="O2" t="n">
-        <v>328416.7079457132</v>
+        <v>328416.7079457131</v>
       </c>
       <c r="P2" t="n">
         <v>328416.7079457135</v>
@@ -26366,43 +26366,43 @@
         <v>283749.2829753453</v>
       </c>
       <c r="C3" t="n">
-        <v>93028.65251949955</v>
+        <v>63319.47082628492</v>
       </c>
       <c r="D3" t="n">
-        <v>187874.9751499482</v>
+        <v>215941.634977134</v>
       </c>
       <c r="E3" t="n">
         <v>627134.6436336676</v>
       </c>
       <c r="F3" t="n">
-        <v>94834.79787224242</v>
+        <v>152960.4424590281</v>
       </c>
       <c r="G3" t="n">
-        <v>142535.3612994137</v>
+        <v>74980.47774754354</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>10865.30250284849</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>1799.076112044317</v>
+        <v>1799.076112044377</v>
       </c>
       <c r="K3" t="n">
-        <v>12508.59385839703</v>
+        <v>7751.298118528223</v>
       </c>
       <c r="L3" t="n">
-        <v>58708.21177171801</v>
+        <v>52521.14718539037</v>
       </c>
       <c r="M3" t="n">
-        <v>160456.4418678774</v>
+        <v>171321.7443707259</v>
       </c>
       <c r="N3" t="n">
-        <v>24934.31472010073</v>
+        <v>40216.92350878735</v>
       </c>
       <c r="O3" t="n">
-        <v>31056.15846522678</v>
+        <v>16040.35748123463</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26418,7 +26418,7 @@
         <v>354768.8844604411</v>
       </c>
       <c r="C4" t="n">
-        <v>329319.6950027077</v>
+        <v>337723.4195335117</v>
       </c>
       <c r="D4" t="n">
         <v>273280.8790357535</v>
@@ -26427,37 +26427,37 @@
         <v>9770.403102091475</v>
       </c>
       <c r="F4" t="n">
-        <v>9823.084594803267</v>
+        <v>9855.379541648806</v>
       </c>
       <c r="G4" t="n">
+        <v>27851.96180405728</v>
+      </c>
+      <c r="H4" t="n">
         <v>40959.76311601001</v>
       </c>
-      <c r="H4" t="n">
-        <v>40959.76311601003</v>
-      </c>
       <c r="I4" t="n">
-        <v>40959.76311601006</v>
+        <v>40959.76311601</v>
       </c>
       <c r="J4" t="n">
-        <v>40959.76311601006</v>
+        <v>40959.76311601001</v>
       </c>
       <c r="K4" t="n">
-        <v>40959.76311601003</v>
+        <v>40959.76311601001</v>
       </c>
       <c r="L4" t="n">
-        <v>40959.76311601002</v>
+        <v>40959.76311600996</v>
       </c>
       <c r="M4" t="n">
-        <v>40959.76311601002</v>
+        <v>40959.76311601</v>
       </c>
       <c r="N4" t="n">
+        <v>40959.76311600993</v>
+      </c>
+      <c r="O4" t="n">
         <v>40959.76311600997</v>
       </c>
-      <c r="O4" t="n">
-        <v>40959.76311600998</v>
-      </c>
       <c r="P4" t="n">
-        <v>40959.76311600999</v>
+        <v>40959.76311600987</v>
       </c>
     </row>
     <row r="5">
@@ -26470,7 +26470,7 @@
         <v>40412.84643290664</v>
       </c>
       <c r="C5" t="n">
-        <v>45219.06573575805</v>
+        <v>43526.93507027924</v>
       </c>
       <c r="D5" t="n">
         <v>56985.80041161358</v>
@@ -26479,37 +26479,37 @@
         <v>74306.3405613933</v>
       </c>
       <c r="F5" t="n">
-        <v>82306.98312134448</v>
+        <v>87210.69480038577</v>
       </c>
       <c r="G5" t="n">
+        <v>93964.64020701531</v>
+      </c>
+      <c r="H5" t="n">
+        <v>95106.43410215528</v>
+      </c>
+      <c r="I5" t="n">
+        <v>95106.43410215528</v>
+      </c>
+      <c r="J5" t="n">
+        <v>95106.43410215528</v>
+      </c>
+      <c r="K5" t="n">
         <v>95106.4341021553</v>
       </c>
-      <c r="H5" t="n">
-        <v>95106.4341021553</v>
-      </c>
-      <c r="I5" t="n">
-        <v>95106.4341021553</v>
-      </c>
-      <c r="J5" t="n">
-        <v>95106.4341021553</v>
-      </c>
-      <c r="K5" t="n">
+      <c r="L5" t="n">
         <v>95106.43410215528</v>
-      </c>
-      <c r="L5" t="n">
-        <v>95106.4341021553</v>
       </c>
       <c r="M5" t="n">
         <v>95106.4341021553</v>
       </c>
       <c r="N5" t="n">
-        <v>95106.4341021553</v>
+        <v>95106.43410215531</v>
       </c>
       <c r="O5" t="n">
-        <v>95106.4341021553</v>
+        <v>95106.43410215528</v>
       </c>
       <c r="P5" t="n">
-        <v>95106.4341021553</v>
+        <v>95106.43410215528</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-350745.2264952367</v>
+        <v>-350746.6697488134</v>
       </c>
       <c r="C6" t="n">
-        <v>-139150.705312252</v>
+        <v>-116153.1174843625</v>
       </c>
       <c r="D6" t="n">
-        <v>-189724.9466516021</v>
+        <v>-217791.6064787878</v>
       </c>
       <c r="E6" t="n">
-        <v>-438413.7081204159</v>
+        <v>-438761.3270502221</v>
       </c>
       <c r="F6" t="n">
-        <v>100782.0326957819</v>
+        <v>46686.05800299074</v>
       </c>
       <c r="G6" t="n">
-        <v>49815.14942813452</v>
+        <v>122399.7653568317</v>
       </c>
       <c r="H6" t="n">
-        <v>192350.5107275481</v>
+        <v>181485.2082246996</v>
       </c>
       <c r="I6" t="n">
-        <v>192350.5107275477</v>
+        <v>192350.5107275479</v>
       </c>
       <c r="J6" t="n">
         <v>190551.4346155034</v>
       </c>
       <c r="K6" t="n">
-        <v>179841.9168691509</v>
+        <v>184599.21260902</v>
       </c>
       <c r="L6" t="n">
-        <v>133642.29895583</v>
+        <v>139829.3635421579</v>
       </c>
       <c r="M6" t="n">
-        <v>31894.06885967066</v>
+        <v>21028.76635682228</v>
       </c>
       <c r="N6" t="n">
-        <v>167416.1960074474</v>
+        <v>152133.5872187606</v>
       </c>
       <c r="O6" t="n">
-        <v>161294.3522623212</v>
+        <v>176310.1532463132</v>
       </c>
       <c r="P6" t="n">
-        <v>192350.5107275482</v>
+        <v>192350.5107275483</v>
       </c>
     </row>
   </sheetData>
@@ -26698,34 +26698,34 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
+        <v>18.0285742236533</v>
+      </c>
+      <c r="H2" t="n">
+        <v>31.61020235221392</v>
+      </c>
+      <c r="I2" t="n">
+        <v>31.61020235221392</v>
+      </c>
+      <c r="J2" t="n">
+        <v>31.61020235221392</v>
+      </c>
+      <c r="K2" t="n">
+        <v>31.61020235221392</v>
+      </c>
+      <c r="L2" t="n">
+        <v>31.61020235221385</v>
+      </c>
+      <c r="M2" t="n">
         <v>31.61020235221391</v>
       </c>
-      <c r="H2" t="n">
-        <v>31.61020235221394</v>
-      </c>
-      <c r="I2" t="n">
-        <v>31.61020235221394</v>
-      </c>
-      <c r="J2" t="n">
-        <v>31.61020235221394</v>
-      </c>
-      <c r="K2" t="n">
-        <v>31.61020235221394</v>
-      </c>
-      <c r="L2" t="n">
-        <v>31.61020235221394</v>
-      </c>
-      <c r="M2" t="n">
-        <v>31.61020235221394</v>
-      </c>
       <c r="N2" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="O2" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221378</v>
       </c>
       <c r="P2" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221377</v>
       </c>
     </row>
     <row r="3">
@@ -26738,7 +26738,7 @@
         <v>292.0726078812197</v>
       </c>
       <c r="C3" t="n">
-        <v>376.9909126571242</v>
+        <v>350.9230909963904</v>
       </c>
       <c r="D3" t="n">
         <v>548.4699409129047</v>
@@ -26747,7 +26747,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="F3" t="n">
-        <v>1172.850890738446</v>
+        <v>1223.768285608807</v>
       </c>
       <c r="G3" t="n">
         <v>1278.159870620123</v>
@@ -26790,16 +26790,16 @@
         <v>6.876045741711437</v>
       </c>
       <c r="C4" t="n">
-        <v>55.47802368145955</v>
+        <v>36.99361326575547</v>
       </c>
       <c r="D4" t="n">
         <v>187.52558716632</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="F4" t="n">
-        <v>933.2045016981311</v>
+        <v>995.6010883900291</v>
       </c>
       <c r="G4" t="n">
         <v>1062.255112188953</v>
@@ -26920,10 +26920,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>31.61020235221391</v>
+        <v>18.0285742236533</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>13.58162812856061</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -26935,10 +26935,10 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>31.61020235221391</v>
+        <v>18.02857422365324</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>13.58162812856067</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26960,19 +26960,19 @@
         <v>292.0726078812197</v>
       </c>
       <c r="C3" t="n">
-        <v>84.91830477590457</v>
+        <v>58.85048311517073</v>
       </c>
       <c r="D3" t="n">
-        <v>171.4790282557805</v>
+        <v>197.5468499165143</v>
       </c>
       <c r="E3" t="n">
         <v>541.3067596803936</v>
       </c>
       <c r="F3" t="n">
-        <v>83.07419014514744</v>
+        <v>133.9915850155089</v>
       </c>
       <c r="G3" t="n">
-        <v>105.3089798816773</v>
+        <v>54.39158501131578</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27012,19 +27012,19 @@
         <v>6.876045741711437</v>
       </c>
       <c r="C4" t="n">
-        <v>48.60197793974811</v>
+        <v>30.11756752404403</v>
       </c>
       <c r="D4" t="n">
-        <v>132.0475634848605</v>
+        <v>150.5319739005645</v>
       </c>
       <c r="E4" t="n">
         <v>643.8758682359728</v>
       </c>
       <c r="F4" t="n">
-        <v>101.8030462958383</v>
+        <v>164.1996329877363</v>
       </c>
       <c r="G4" t="n">
-        <v>129.0506104908219</v>
+        <v>66.65402379892373</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,22 +27033,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>6.876045741711323</v>
+        <v>6.87604574171155</v>
       </c>
       <c r="K4" t="n">
-        <v>48.60197793974788</v>
+        <v>30.11756752404426</v>
       </c>
       <c r="L4" t="n">
-        <v>132.0475634848607</v>
+        <v>150.5319739005645</v>
       </c>
       <c r="M4" t="n">
         <v>643.8758682359728</v>
       </c>
       <c r="N4" t="n">
-        <v>101.8030462958383</v>
+        <v>164.1996329877365</v>
       </c>
       <c r="O4" t="n">
-        <v>129.0506104908219</v>
+        <v>66.6540237989235</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27157,10 +27157,10 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>31.61020235221391</v>
+        <v>18.0285742236533</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>13.58162812856061</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -27258,19 +27258,19 @@
         <v>6.876045741711437</v>
       </c>
       <c r="K4" t="n">
-        <v>48.60197793974811</v>
+        <v>30.11756752404403</v>
       </c>
       <c r="L4" t="n">
-        <v>132.0475634848605</v>
+        <v>150.5319739005645</v>
       </c>
       <c r="M4" t="n">
         <v>643.8758682359728</v>
       </c>
       <c r="N4" t="n">
-        <v>101.8030462958383</v>
+        <v>164.1996329877363</v>
       </c>
       <c r="O4" t="n">
-        <v>129.0506104908219</v>
+        <v>66.65402379892373</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27379,7 +27379,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>359.2164706817081</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -27424,7 +27424,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>69.236666350921</v>
+        <v>76.11271209263244</v>
       </c>
       <c r="S2" t="n">
         <v>182.2638703818502</v>
@@ -27439,13 +27439,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>342.3649229757016</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>380.1815175667542</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27470,13 +27470,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>130.6588644267705</v>
+        <v>136.7152855160699</v>
       </c>
       <c r="H3" t="n">
-        <v>99.29200337634686</v>
+        <v>106.1680491180583</v>
       </c>
       <c r="I3" t="n">
-        <v>60.89068171472653</v>
+        <v>67.76672745643796</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27506,7 +27506,7 @@
         <v>54.27631824898314</v>
       </c>
       <c r="S3" t="n">
-        <v>160.0140437983948</v>
+        <v>153.9576227090953</v>
       </c>
       <c r="T3" t="n">
         <v>197.6325142925307</v>
@@ -27515,10 +27515,10 @@
         <v>225.9000510515577</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>225.9245414077138</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>244.8189374192082</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
@@ -27534,10 +27534,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>172.9559344402259</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>161.1904000093284</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27579,16 +27579,16 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>35.18303371991878</v>
+        <v>42.05907946163022</v>
       </c>
       <c r="R4" t="n">
         <v>146.7355240193841</v>
       </c>
       <c r="S4" t="n">
-        <v>208.7814361393401</v>
+        <v>214.8378572286395</v>
       </c>
       <c r="T4" t="n">
-        <v>225.6951939249344</v>
+        <v>218.8191481832229</v>
       </c>
       <c r="U4" t="n">
         <v>286.2903009032567</v>
@@ -27600,7 +27600,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>218.8336096473257</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27622,19 +27622,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>326.4523463908022</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>351.3980220602519</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>358.3091724762599</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9537641891349</v>
+        <v>325.0269986759007</v>
       </c>
       <c r="I5" t="n">
-        <v>152.0479813886419</v>
+        <v>156.0881007638196</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,16 +27661,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.66849314839357</v>
+        <v>61.2513385851617</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4846709041379</v>
+        <v>139.8790796930316</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4615672720447</v>
+        <v>179.9266952698866</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2244095992432</v>
+        <v>239.4168558181911</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27679,10 +27679,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>320.8660574198395</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>349.2443253902981</v>
       </c>
     </row>
     <row r="6">
@@ -27701,19 +27701,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>102.1670567739414</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>89.59118871192433</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>136.5326310491934</v>
+        <v>136.5887014580486</v>
       </c>
       <c r="H6" t="n">
-        <v>104.4039915037513</v>
+        <v>104.9455136103262</v>
       </c>
       <c r="I6" t="n">
-        <v>61.47796620652427</v>
+        <v>63.40846054649371</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,28 +27740,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>20.70907396415718</v>
       </c>
       <c r="S6" t="n">
-        <v>102.0900149703808</v>
+        <v>120.6691871742171</v>
       </c>
       <c r="T6" t="n">
-        <v>196.8962886124452</v>
+        <v>197.1222917077869</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8880343103158</v>
+        <v>225.8917231530036</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>214.7013698951641</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>168.6890825115489</v>
       </c>
     </row>
     <row r="7">
@@ -27780,22 +27780,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>116.6232399892861</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3111596798967</v>
+        <v>167.3581672271538</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1829575471336</v>
+        <v>156.6008973763827</v>
       </c>
       <c r="I7" t="n">
-        <v>135.0064431392293</v>
+        <v>136.4200882876507</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>48.61936243341167</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,25 +27819,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.7262265574623</v>
+        <v>148.8398568186753</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1691950933049</v>
+        <v>176.5834771206004</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0409053471528</v>
+        <v>225.2417557763421</v>
       </c>
       <c r="U7" t="n">
-        <v>230.8039246016552</v>
+        <v>286.284512331147</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>215.1440300580725</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>249.5293850708355</v>
       </c>
       <c r="X7" t="n">
-        <v>170.2316317075776</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27856,7 +27856,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>167.1574544543629</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -27898,28 +27898,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>11.36529914368131</v>
       </c>
       <c r="S8" t="n">
         <v>158.7758131900531</v>
       </c>
       <c r="T8" t="n">
-        <v>213.4438810562068</v>
+        <v>25.91829388988677</v>
       </c>
       <c r="U8" t="n">
-        <v>63.64367339871032</v>
+        <v>105.9706023607052</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>140.2266713038149</v>
       </c>
       <c r="W8" t="n">
-        <v>161.715381551093</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>182.205513512149</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>252.4045795954097</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -27929,28 +27929,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>136.1637893657753</v>
       </c>
       <c r="H9" t="n">
-        <v>8.194418210390481</v>
+        <v>100.8417573507397</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>48.77881175550657</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27992,13 +27992,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>64.1693959945996</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>19.60804451093017</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>18.15710861098435</v>
       </c>
     </row>
     <row r="10">
@@ -28008,22 +28008,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>50.31302348784597</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>146.094346234295</v>
       </c>
       <c r="H10" t="n">
         <v>153.4336708318196</v>
@@ -28062,7 +28062,7 @@
         <v>206.7802557954962</v>
       </c>
       <c r="T10" t="n">
-        <v>223.7196734901001</v>
+        <v>36.19408632378009</v>
       </c>
       <c r="U10" t="n">
         <v>286.2650814934503</v>
@@ -28077,7 +28077,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>31.05906618577478</v>
       </c>
     </row>
     <row r="11">
@@ -28561,25 +28561,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>31.61020235221391</v>
+        <v>18.0285742236533</v>
       </c>
       <c r="C17" t="n">
-        <v>31.61020235221391</v>
+        <v>18.0285742236533</v>
       </c>
       <c r="D17" t="n">
-        <v>31.61020235221391</v>
+        <v>18.0285742236533</v>
       </c>
       <c r="E17" t="n">
-        <v>31.61020235221391</v>
+        <v>18.0285742236533</v>
       </c>
       <c r="F17" t="n">
-        <v>31.61020235221391</v>
+        <v>18.0285742236533</v>
       </c>
       <c r="G17" t="n">
-        <v>31.61020235221391</v>
+        <v>18.0285742236533</v>
       </c>
       <c r="H17" t="n">
-        <v>31.61020235221391</v>
+        <v>18.0285742236533</v>
       </c>
       <c r="I17" t="n">
         <v>12.38037836605494</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>31.61020235221391</v>
+        <v>18.0285742236533</v>
       </c>
       <c r="T17" t="n">
-        <v>31.61020235221391</v>
+        <v>18.0285742236533</v>
       </c>
       <c r="U17" t="n">
-        <v>31.61020235221391</v>
+        <v>18.0285742236533</v>
       </c>
       <c r="V17" t="n">
-        <v>31.61020235221391</v>
+        <v>18.0285742236533</v>
       </c>
       <c r="W17" t="n">
-        <v>31.61020235221391</v>
+        <v>18.0285742236533</v>
       </c>
       <c r="X17" t="n">
-        <v>31.61020235221391</v>
+        <v>18.0285742236533</v>
       </c>
       <c r="Y17" t="n">
-        <v>31.61020235221391</v>
+        <v>18.0285742236533</v>
       </c>
     </row>
     <row r="18">
@@ -28719,76 +28719,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>31.61020235221391</v>
+        <v>18.0285742236533</v>
       </c>
       <c r="C19" t="n">
-        <v>31.61020235221391</v>
+        <v>18.0285742236533</v>
       </c>
       <c r="D19" t="n">
-        <v>31.61020235221391</v>
+        <v>18.0285742236533</v>
       </c>
       <c r="E19" t="n">
-        <v>31.61020235221391</v>
+        <v>18.0285742236533</v>
       </c>
       <c r="F19" t="n">
-        <v>31.61020235221391</v>
+        <v>18.0285742236533</v>
       </c>
       <c r="G19" t="n">
-        <v>31.61020235221391</v>
+        <v>18.0285742236533</v>
       </c>
       <c r="H19" t="n">
-        <v>31.61020235221391</v>
+        <v>18.0285742236533</v>
       </c>
       <c r="I19" t="n">
-        <v>31.61020235221391</v>
+        <v>18.0285742236533</v>
       </c>
       <c r="J19" t="n">
-        <v>31.61020235221391</v>
+        <v>18.0285742236533</v>
       </c>
       <c r="K19" t="n">
-        <v>31.61020235221391</v>
+        <v>18.0285742236533</v>
       </c>
       <c r="L19" t="n">
-        <v>31.61020235221391</v>
+        <v>18.0285742236533</v>
       </c>
       <c r="M19" t="n">
-        <v>31.61020235221391</v>
+        <v>18.0285742236533</v>
       </c>
       <c r="N19" t="n">
-        <v>31.61020235221391</v>
+        <v>18.0285742236533</v>
       </c>
       <c r="O19" t="n">
-        <v>31.61020235221391</v>
+        <v>18.0285742236533</v>
       </c>
       <c r="P19" t="n">
-        <v>31.61020235221391</v>
+        <v>18.0285742236533</v>
       </c>
       <c r="Q19" t="n">
-        <v>31.61020235221391</v>
+        <v>18.0285742236533</v>
       </c>
       <c r="R19" t="n">
-        <v>31.61020235221391</v>
+        <v>18.0285742236533</v>
       </c>
       <c r="S19" t="n">
-        <v>31.61020235221391</v>
+        <v>18.0285742236533</v>
       </c>
       <c r="T19" t="n">
-        <v>31.61020235221391</v>
+        <v>18.0285742236533</v>
       </c>
       <c r="U19" t="n">
-        <v>31.61020235221391</v>
+        <v>18.0285742236533</v>
       </c>
       <c r="V19" t="n">
-        <v>31.61020235221391</v>
+        <v>18.0285742236533</v>
       </c>
       <c r="W19" t="n">
-        <v>31.61020235221391</v>
+        <v>18.0285742236533</v>
       </c>
       <c r="X19" t="n">
-        <v>31.61020235221391</v>
+        <v>18.0285742236533</v>
       </c>
       <c r="Y19" t="n">
-        <v>31.61020235221391</v>
+        <v>18.0285742236533</v>
       </c>
     </row>
     <row r="20">
@@ -28798,25 +28798,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="C20" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="D20" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="E20" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="F20" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="G20" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="H20" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="I20" t="n">
         <v>12.38037836605494</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="T20" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="U20" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="V20" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="W20" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="X20" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="Y20" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
     </row>
     <row r="21">
@@ -28956,76 +28956,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="C22" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="D22" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="E22" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="F22" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="G22" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="H22" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="I22" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="J22" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="K22" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="L22" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="M22" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="N22" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="O22" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="P22" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="Q22" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="R22" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="S22" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="T22" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="U22" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="V22" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="W22" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="X22" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="Y22" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
     </row>
     <row r="23">
@@ -29035,25 +29035,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="C23" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="D23" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="E23" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="F23" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="G23" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="H23" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="I23" t="n">
         <v>12.38037836605494</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="T23" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="U23" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="V23" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="W23" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="X23" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="Y23" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
     </row>
     <row r="24">
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="C25" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="D25" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="E25" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="F25" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="G25" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="H25" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="I25" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="J25" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="K25" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="L25" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="M25" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="N25" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="O25" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="P25" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="Q25" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="R25" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="S25" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="T25" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="U25" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="V25" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="W25" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="X25" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="Y25" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
     </row>
     <row r="26">
@@ -29272,25 +29272,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="C26" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="D26" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="E26" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="F26" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="G26" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="H26" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="I26" t="n">
         <v>12.38037836605494</v>
@@ -29323,25 +29323,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="T26" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="U26" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="V26" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="W26" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="X26" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="Y26" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="C28" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="D28" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="E28" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="F28" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="G28" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="H28" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="I28" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="J28" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="K28" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="L28" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="M28" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="N28" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="O28" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="P28" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="Q28" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="R28" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="S28" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="T28" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="U28" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="V28" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="W28" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="X28" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="Y28" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
     </row>
     <row r="29">
@@ -29509,25 +29509,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="C29" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="D29" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="E29" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="F29" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="G29" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="H29" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="I29" t="n">
         <v>12.38037836605494</v>
@@ -29560,25 +29560,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="T29" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="U29" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="V29" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="W29" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="X29" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="Y29" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="C31" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="D31" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="E31" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="F31" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="G31" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="H31" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="I31" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="J31" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="K31" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="L31" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="M31" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="N31" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="O31" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="P31" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="Q31" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="R31" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="S31" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="T31" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="U31" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="V31" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="W31" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="X31" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="Y31" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221392</v>
       </c>
     </row>
     <row r="32">
@@ -29746,25 +29746,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="C32" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="D32" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="E32" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="F32" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="G32" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="H32" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="I32" t="n">
         <v>12.38037836605494</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="T32" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="U32" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="V32" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="W32" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="X32" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="Y32" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221385</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="C34" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="D34" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="E34" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="F34" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="G34" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="H34" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="I34" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="J34" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="K34" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="L34" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="M34" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="N34" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="O34" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="P34" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="Q34" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="R34" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="S34" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="T34" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="U34" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="V34" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="W34" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="X34" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221385</v>
       </c>
       <c r="Y34" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221385</v>
       </c>
     </row>
     <row r="35">
@@ -29983,25 +29983,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="C35" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="D35" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="E35" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="F35" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="G35" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="H35" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="I35" t="n">
         <v>12.38037836605494</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="T35" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="U35" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="V35" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="W35" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="X35" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="Y35" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="C37" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="D37" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="E37" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="F37" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="G37" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="H37" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="I37" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="J37" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="K37" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="L37" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="M37" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="N37" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="O37" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="P37" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="Q37" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="R37" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="S37" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="T37" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="U37" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="V37" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="W37" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="X37" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="Y37" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
     </row>
     <row r="38">
@@ -30220,28 +30220,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="C38" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="D38" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="E38" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="F38" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="G38" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="H38" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="I38" t="n">
-        <v>12.38037836605494</v>
+        <v>12.38037836605491</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="T38" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="U38" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221241</v>
       </c>
       <c r="V38" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="W38" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="X38" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="Y38" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221391</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="C40" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="D40" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="E40" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="F40" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="G40" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="H40" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="I40" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="J40" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="K40" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="L40" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="M40" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="N40" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="O40" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="P40" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="Q40" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="R40" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="S40" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="T40" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="U40" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="V40" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="W40" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="X40" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="Y40" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221391</v>
       </c>
     </row>
     <row r="41">
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221378</v>
       </c>
       <c r="C41" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221378</v>
       </c>
       <c r="D41" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221378</v>
       </c>
       <c r="E41" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221378</v>
       </c>
       <c r="F41" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221378</v>
       </c>
       <c r="G41" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221378</v>
       </c>
       <c r="H41" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221378</v>
       </c>
       <c r="I41" t="n">
         <v>12.38037836605494</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221574</v>
       </c>
       <c r="T41" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221378</v>
       </c>
       <c r="U41" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221378</v>
       </c>
       <c r="V41" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221378</v>
       </c>
       <c r="W41" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221378</v>
       </c>
       <c r="X41" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221378</v>
       </c>
       <c r="Y41" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221378</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221378</v>
       </c>
       <c r="C43" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221378</v>
       </c>
       <c r="D43" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221378</v>
       </c>
       <c r="E43" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221378</v>
       </c>
       <c r="F43" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221378</v>
       </c>
       <c r="G43" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221378</v>
       </c>
       <c r="H43" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221378</v>
       </c>
       <c r="I43" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221378</v>
       </c>
       <c r="J43" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221378</v>
       </c>
       <c r="K43" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221378</v>
       </c>
       <c r="L43" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221378</v>
       </c>
       <c r="M43" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221378</v>
       </c>
       <c r="N43" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221378</v>
       </c>
       <c r="O43" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221378</v>
       </c>
       <c r="P43" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221378</v>
       </c>
       <c r="Q43" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221378</v>
       </c>
       <c r="R43" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221378</v>
       </c>
       <c r="S43" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221378</v>
       </c>
       <c r="T43" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221378</v>
       </c>
       <c r="U43" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221378</v>
       </c>
       <c r="V43" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221378</v>
       </c>
       <c r="W43" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221378</v>
       </c>
       <c r="X43" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221378</v>
       </c>
       <c r="Y43" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221378</v>
       </c>
     </row>
     <row r="44">
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221377</v>
       </c>
       <c r="C44" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221377</v>
       </c>
       <c r="D44" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221377</v>
       </c>
       <c r="E44" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221377</v>
       </c>
       <c r="F44" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221377</v>
       </c>
       <c r="G44" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221377</v>
       </c>
       <c r="H44" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221377</v>
       </c>
       <c r="I44" t="n">
         <v>12.38037836605494</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221377</v>
       </c>
       <c r="T44" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221377</v>
       </c>
       <c r="U44" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221377</v>
       </c>
       <c r="V44" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221377</v>
       </c>
       <c r="W44" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221377</v>
       </c>
       <c r="X44" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221377</v>
       </c>
       <c r="Y44" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221377</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221377</v>
       </c>
       <c r="C46" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221377</v>
       </c>
       <c r="D46" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221377</v>
       </c>
       <c r="E46" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221377</v>
       </c>
       <c r="F46" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221377</v>
       </c>
       <c r="G46" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221377</v>
       </c>
       <c r="H46" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221377</v>
       </c>
       <c r="I46" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221377</v>
       </c>
       <c r="J46" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221377</v>
       </c>
       <c r="K46" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221377</v>
       </c>
       <c r="L46" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221377</v>
       </c>
       <c r="M46" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221377</v>
       </c>
       <c r="N46" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221377</v>
       </c>
       <c r="O46" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221377</v>
       </c>
       <c r="P46" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221377</v>
       </c>
       <c r="Q46" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221377</v>
       </c>
       <c r="R46" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221377</v>
       </c>
       <c r="S46" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221377</v>
       </c>
       <c r="T46" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221377</v>
       </c>
       <c r="U46" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221377</v>
       </c>
       <c r="V46" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221377</v>
       </c>
       <c r="W46" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221377</v>
       </c>
       <c r="X46" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221377</v>
       </c>
       <c r="Y46" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221377</v>
       </c>
     </row>
   </sheetData>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.515541357415574</v>
+        <v>1.41074609445785</v>
       </c>
       <c r="H5" t="n">
-        <v>15.52103792663225</v>
+        <v>14.44780343986646</v>
       </c>
       <c r="I5" t="n">
-        <v>58.42790818176396</v>
+        <v>54.38778880658631</v>
       </c>
       <c r="J5" t="n">
-        <v>128.6296782839502</v>
+        <v>119.735311334492</v>
       </c>
       <c r="K5" t="n">
-        <v>192.7825439433514</v>
+        <v>179.4521935128928</v>
       </c>
       <c r="L5" t="n">
-        <v>239.1637927603583</v>
+        <v>222.6263143011573</v>
       </c>
       <c r="M5" t="n">
-        <v>266.1158013752976</v>
+        <v>247.7146701584721</v>
       </c>
       <c r="N5" t="n">
-        <v>270.4218332570546</v>
+        <v>251.7229524993505</v>
       </c>
       <c r="O5" t="n">
-        <v>255.3516688842534</v>
+        <v>237.6948460225852</v>
       </c>
       <c r="P5" t="n">
-        <v>217.9367416230564</v>
+        <v>202.867051815657</v>
       </c>
       <c r="Q5" t="n">
-        <v>163.6614167606111</v>
+        <v>152.3447073078852</v>
       </c>
       <c r="R5" t="n">
-        <v>95.20062479275612</v>
+        <v>88.61777935598798</v>
       </c>
       <c r="S5" t="n">
-        <v>34.53539868210742</v>
+        <v>32.14737662745829</v>
       </c>
       <c r="T5" t="n">
-        <v>6.634282292086677</v>
+        <v>6.17554102848924</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1212433085932459</v>
+        <v>0.112859687556628</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8108861140172107</v>
+        <v>0.7548157051620473</v>
       </c>
       <c r="H6" t="n">
-        <v>7.831452732745167</v>
+        <v>7.2899306261703</v>
       </c>
       <c r="I6" t="n">
-        <v>27.91866664489081</v>
+        <v>25.98817230492137</v>
       </c>
       <c r="J6" t="n">
-        <v>76.61095518440673</v>
+        <v>71.31353116182308</v>
       </c>
       <c r="K6" t="n">
-        <v>130.9403248235598</v>
+        <v>121.8861834076802</v>
       </c>
       <c r="L6" t="n">
-        <v>176.0654257650089</v>
+        <v>163.8910152809086</v>
       </c>
       <c r="M6" t="n">
-        <v>197.6120576034779</v>
+        <v>179.1276471877738</v>
       </c>
       <c r="N6" t="n">
-        <v>186.8197357647929</v>
+        <v>168.3353253490888</v>
       </c>
       <c r="O6" t="n">
-        <v>192.9304343293492</v>
+        <v>179.5898577101999</v>
       </c>
       <c r="P6" t="n">
-        <v>154.8436825968479</v>
+        <v>144.1366937339702</v>
       </c>
       <c r="Q6" t="n">
-        <v>103.5089011506882</v>
+        <v>96.35156264489572</v>
       </c>
       <c r="R6" t="n">
-        <v>50.34606942994578</v>
+        <v>46.86478562400853</v>
       </c>
       <c r="S6" t="n">
-        <v>15.06185391606528</v>
+        <v>14.02037066386521</v>
       </c>
       <c r="T6" t="n">
-        <v>3.268440082376387</v>
+        <v>3.042436987034742</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05334777065902704</v>
+        <v>0.04965892797118734</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6798196785620272</v>
+        <v>0.6328121313049662</v>
       </c>
       <c r="H7" t="n">
-        <v>6.044214960306028</v>
+        <v>5.626275131056885</v>
       </c>
       <c r="I7" t="n">
-        <v>20.44403178802897</v>
+        <v>19.03038663960753</v>
       </c>
       <c r="J7" t="n">
-        <v>48.06325127433532</v>
+        <v>44.73981768326111</v>
       </c>
       <c r="K7" t="n">
-        <v>78.98268629111551</v>
+        <v>73.52126398252243</v>
       </c>
       <c r="L7" t="n">
-        <v>101.0706456654854</v>
+        <v>94.08190541237654</v>
       </c>
       <c r="M7" t="n">
-        <v>106.5648247040458</v>
+        <v>99.19617800083209</v>
       </c>
       <c r="N7" t="n">
-        <v>104.0309513566783</v>
+        <v>96.83751460233185</v>
       </c>
       <c r="O7" t="n">
-        <v>96.08942147529457</v>
+        <v>89.44511834117834</v>
       </c>
       <c r="P7" t="n">
-        <v>82.22110003262915</v>
+        <v>76.53575086255697</v>
       </c>
       <c r="Q7" t="n">
-        <v>56.92562781122576</v>
+        <v>52.98938674045495</v>
       </c>
       <c r="R7" t="n">
-        <v>30.56716481970714</v>
+        <v>28.4535345584942</v>
       </c>
       <c r="S7" t="n">
-        <v>11.84740294366732</v>
+        <v>11.02818959737836</v>
       </c>
       <c r="T7" t="n">
-        <v>2.904684081128661</v>
+        <v>2.7038336519394</v>
       </c>
       <c r="U7" t="n">
-        <v>0.03708107337611062</v>
+        <v>0.03451702534390728</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.714978455229929</v>
+        <v>4.9196714999349</v>
       </c>
       <c r="H14" t="n">
-        <v>48.28727310462352</v>
+        <v>50.38358574870831</v>
       </c>
       <c r="I14" t="n">
-        <v>181.774206895252</v>
+        <v>189.6656355012404</v>
       </c>
       <c r="J14" t="n">
-        <v>400.1779026645715</v>
+        <v>417.5509689676001</v>
       </c>
       <c r="K14" t="n">
-        <v>599.7629406744545</v>
+        <v>625.8006635598445</v>
       </c>
       <c r="L14" t="n">
-        <v>744.0589625736976</v>
+        <v>776.3610602259773</v>
       </c>
       <c r="M14" t="n">
-        <v>827.9089606768929</v>
+        <v>863.8512682629446</v>
       </c>
       <c r="N14" t="n">
-        <v>841.305393212815</v>
+        <v>877.8292849121347</v>
       </c>
       <c r="O14" t="n">
-        <v>794.4208261986223</v>
+        <v>828.909301434657</v>
       </c>
       <c r="P14" t="n">
-        <v>678.0197955851334</v>
+        <v>707.454911280014</v>
       </c>
       <c r="Q14" t="n">
-        <v>509.1646296572114</v>
+        <v>531.2691756885953</v>
       </c>
       <c r="R14" t="n">
-        <v>296.1772653883373</v>
+        <v>309.0353148577859</v>
       </c>
       <c r="S14" t="n">
-        <v>107.4425715485521</v>
+        <v>112.1070143047666</v>
       </c>
       <c r="T14" t="n">
-        <v>20.63981818776902</v>
+        <v>21.53586199096504</v>
       </c>
       <c r="U14" t="n">
-        <v>0.3771982764183943</v>
+        <v>0.3935737199947919</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.522735878192129</v>
+        <v>2.632256312441585</v>
       </c>
       <c r="H15" t="n">
-        <v>24.36431756043451</v>
+        <v>25.422054385949</v>
       </c>
       <c r="I15" t="n">
-        <v>86.85735370091321</v>
+        <v>90.62812303801074</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>248.6904966065974</v>
       </c>
       <c r="K15" t="n">
-        <v>407.3665211728053</v>
+        <v>425.0516695401836</v>
       </c>
       <c r="L15" t="n">
-        <v>547.7545598679883</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>639.2037354524529</v>
+        <v>666.9537156567999</v>
       </c>
       <c r="N15" t="n">
-        <v>656.1215563198028</v>
+        <v>684.6059959275157</v>
       </c>
       <c r="O15" t="n">
-        <v>600.2230402819666</v>
+        <v>576.7116124078032</v>
       </c>
       <c r="P15" t="n">
-        <v>481.7319064242496</v>
+        <v>502.6455058380779</v>
       </c>
       <c r="Q15" t="n">
-        <v>145.3025718202223</v>
+        <v>336.0052092864031</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>163.4307910479083</v>
       </c>
       <c r="S15" t="n">
-        <v>46.85871247431429</v>
+        <v>48.89300650521977</v>
       </c>
       <c r="T15" t="n">
-        <v>10.16839593008143</v>
+        <v>10.60984013655182</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1659694656705348</v>
+        <v>0.1731747573974728</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.114977016085722</v>
+        <v>2.206795269130636</v>
       </c>
       <c r="H16" t="n">
-        <v>18.80406837938034</v>
+        <v>19.62041612008876</v>
       </c>
       <c r="I16" t="n">
-        <v>63.60312699283245</v>
+        <v>66.36435227531041</v>
       </c>
       <c r="J16" t="n">
-        <v>149.5288750372605</v>
+        <v>156.0204255275359</v>
       </c>
       <c r="K16" t="n">
-        <v>245.7218751415956</v>
+        <v>256.389486722632</v>
       </c>
       <c r="L16" t="n">
-        <v>314.4394011005991</v>
+        <v>328.0902711942039</v>
       </c>
       <c r="M16" t="n">
-        <v>331.5322608033281</v>
+        <v>345.925189323814</v>
       </c>
       <c r="N16" t="n">
-        <v>323.6491646524634</v>
+        <v>337.6998615025092</v>
       </c>
       <c r="O16" t="n">
-        <v>298.9423876918256</v>
+        <v>311.9204804040285</v>
       </c>
       <c r="P16" t="n">
-        <v>255.7968565636766</v>
+        <v>266.9018569137633</v>
       </c>
       <c r="Q16" t="n">
-        <v>177.1004845015053</v>
+        <v>184.7890111269299</v>
       </c>
       <c r="R16" t="n">
-        <v>95.09705746872706</v>
+        <v>99.22554001018293</v>
       </c>
       <c r="S16" t="n">
-        <v>36.85828127123933</v>
+        <v>38.4584230083948</v>
       </c>
       <c r="T16" t="n">
-        <v>9.036719977820809</v>
+        <v>9.429034331739986</v>
       </c>
       <c r="U16" t="n">
-        <v>0.115362382695585</v>
+        <v>0.1203706510434894</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32315,19 +32315,19 @@
         <v>259.7437903115856</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>443.9435090247271</v>
       </c>
       <c r="L18" t="n">
-        <v>224.6083558013943</v>
+        <v>596.9368339155585</v>
       </c>
       <c r="M18" t="n">
-        <v>696.597129487967</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
         <v>715.033982716063</v>
       </c>
       <c r="O18" t="n">
-        <v>654.1164009578284</v>
+        <v>530.1489483592447</v>
       </c>
       <c r="P18" t="n">
         <v>524.9860796892351</v>
@@ -32549,31 +32549,31 @@
         <v>94.65617909781101</v>
       </c>
       <c r="J21" t="n">
-        <v>259.7437903115856</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
         <v>443.9435090247271</v>
       </c>
       <c r="L21" t="n">
-        <v>596.9368339155585</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
         <v>696.597129487967</v>
       </c>
       <c r="N21" t="n">
-        <v>573.1387203886723</v>
+        <v>715.033982716063</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>654.1164009578284</v>
       </c>
       <c r="P21" t="n">
-        <v>524.9860796892351</v>
+        <v>437.844149305306</v>
       </c>
       <c r="Q21" t="n">
         <v>350.9392912691327</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>170.6946332877214</v>
       </c>
       <c r="S21" t="n">
         <v>51.06610426486998</v>
@@ -32792,7 +32792,7 @@
         <v>443.9435090247271</v>
       </c>
       <c r="L24" t="n">
-        <v>596.9368339155585</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M24" t="n">
         <v>696.597129487967</v>
@@ -32801,16 +32801,16 @@
         <v>715.033982716063</v>
       </c>
       <c r="O24" t="n">
-        <v>142.5962444444444</v>
+        <v>434.0683069289803</v>
       </c>
       <c r="P24" t="n">
         <v>524.9860796892351</v>
       </c>
       <c r="Q24" t="n">
-        <v>209.0440289417418</v>
+        <v>350.9392912691327</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>170.6946332877214</v>
       </c>
       <c r="S24" t="n">
         <v>51.06610426486998</v>
@@ -33026,28 +33026,28 @@
         <v>259.7437903115856</v>
       </c>
       <c r="K27" t="n">
-        <v>319.9760564261434</v>
+        <v>443.9435090247271</v>
       </c>
       <c r="L27" t="n">
         <v>596.9368339155585</v>
       </c>
       <c r="M27" t="n">
-        <v>142.1340339220183</v>
+        <v>696.597129487967</v>
       </c>
       <c r="N27" t="n">
         <v>715.033982716063</v>
       </c>
       <c r="O27" t="n">
-        <v>654.1164009578284</v>
+        <v>211.6584993001647</v>
       </c>
       <c r="P27" t="n">
         <v>524.9860796892351</v>
       </c>
       <c r="Q27" t="n">
-        <v>350.9392912691327</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>170.6946332877214</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>51.06610426486998</v>
@@ -33260,31 +33260,31 @@
         <v>94.65617909781101</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>259.7437903115856</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>443.9435090247271</v>
       </c>
       <c r="L30" t="n">
         <v>596.9368339155585</v>
       </c>
       <c r="M30" t="n">
-        <v>696.597129487967</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
         <v>715.033982716063</v>
       </c>
       <c r="O30" t="n">
-        <v>650.6667329954519</v>
+        <v>654.1164009578284</v>
       </c>
       <c r="P30" t="n">
         <v>524.9860796892351</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>226.9718386705491</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>170.6946332877214</v>
       </c>
       <c r="S30" t="n">
         <v>51.06610426486998</v>
@@ -33500,7 +33500,7 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>443.9435090247271</v>
       </c>
       <c r="L33" t="n">
         <v>596.9368339155585</v>
@@ -33512,16 +33512,16 @@
         <v>715.033982716063</v>
       </c>
       <c r="O33" t="n">
-        <v>650.6667329954519</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
-        <v>524.9860796892351</v>
+        <v>490.9818516830057</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>350.9392912691327</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>170.6946332877214</v>
       </c>
       <c r="S33" t="n">
         <v>51.06610426486998</v>
@@ -33734,16 +33734,16 @@
         <v>94.65617909781101</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>259.7437903115856</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>443.9435090247271</v>
       </c>
       <c r="L36" t="n">
         <v>596.9368339155585</v>
       </c>
       <c r="M36" t="n">
-        <v>696.597129487967</v>
+        <v>254.1392278303033</v>
       </c>
       <c r="N36" t="n">
         <v>715.033982716063</v>
@@ -33752,7 +33752,7 @@
         <v>654.1164009578284</v>
       </c>
       <c r="P36" t="n">
-        <v>521.5364117268584</v>
+        <v>524.9860796892351</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -33886,46 +33886,46 @@
         <v>5.138331138171345</v>
       </c>
       <c r="H38" t="n">
-        <v>52.6229337687973</v>
+        <v>52.62293376879731</v>
       </c>
       <c r="I38" t="n">
         <v>198.095511204351</v>
       </c>
       <c r="J38" t="n">
-        <v>436.1094324383706</v>
+        <v>436.1094324383707</v>
       </c>
       <c r="K38" t="n">
-        <v>653.6149895171637</v>
+        <v>653.6149895171638</v>
       </c>
       <c r="L38" t="n">
-        <v>810.8671910869753</v>
+        <v>810.8671910869754</v>
       </c>
       <c r="M38" t="n">
-        <v>902.2459874654298</v>
+        <v>902.2459874654299</v>
       </c>
       <c r="N38" t="n">
-        <v>916.8452708117592</v>
+        <v>916.8452708117594</v>
       </c>
       <c r="O38" t="n">
-        <v>865.7509905565679</v>
+        <v>865.750990556568</v>
       </c>
       <c r="P38" t="n">
-        <v>738.8984405829626</v>
+        <v>738.8984405829628</v>
       </c>
       <c r="Q38" t="n">
-        <v>554.8819566972012</v>
+        <v>554.8819566972013</v>
       </c>
       <c r="R38" t="n">
         <v>322.7706933581561</v>
       </c>
       <c r="S38" t="n">
-        <v>117.0897208110796</v>
+        <v>117.0897208110797</v>
       </c>
       <c r="T38" t="n">
-        <v>22.49304455734507</v>
+        <v>22.49304455734508</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4110664910537075</v>
+        <v>0.4110664910537076</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33965,37 +33965,37 @@
         <v>2.749249533031963</v>
       </c>
       <c r="H39" t="n">
-        <v>26.55196259533501</v>
+        <v>26.55196259533502</v>
       </c>
       <c r="I39" t="n">
-        <v>94.65617909781101</v>
+        <v>94.65617909781103</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>259.7437903115857</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>443.9435090247272</v>
       </c>
       <c r="L39" t="n">
         <v>596.9368339155585</v>
       </c>
       <c r="M39" t="n">
-        <v>696.597129487967</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
-        <v>715.033982716063</v>
+        <v>715.0339827160632</v>
       </c>
       <c r="O39" t="n">
-        <v>654.1164009578284</v>
+        <v>530.1489483592443</v>
       </c>
       <c r="P39" t="n">
-        <v>521.5364117268584</v>
+        <v>524.9860796892352</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>350.9392912691328</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>170.6946332877214</v>
       </c>
       <c r="S39" t="n">
         <v>51.06610426486998</v>
@@ -34047,7 +34047,7 @@
         <v>20.49246481092592</v>
       </c>
       <c r="I40" t="n">
-        <v>69.31398118051422</v>
+        <v>69.31398118051423</v>
       </c>
       <c r="J40" t="n">
         <v>162.9549067838147</v>
@@ -34056,13 +34056,13 @@
         <v>267.7849696151667</v>
       </c>
       <c r="L40" t="n">
-        <v>342.6725659692048</v>
+        <v>342.6725659692049</v>
       </c>
       <c r="M40" t="n">
-        <v>361.3001745754553</v>
+        <v>361.3001745754554</v>
       </c>
       <c r="N40" t="n">
-        <v>352.7092639696482</v>
+        <v>352.7092639696483</v>
       </c>
       <c r="O40" t="n">
         <v>325.7840929246177</v>
@@ -34077,10 +34077,10 @@
         <v>103.6357167227398</v>
       </c>
       <c r="S40" t="n">
-        <v>40.16774544227499</v>
+        <v>40.167745442275</v>
       </c>
       <c r="T40" t="n">
-        <v>9.848117035925535</v>
+        <v>9.848117035925537</v>
       </c>
       <c r="U40" t="n">
         <v>0.1257206430118155</v>
@@ -34208,13 +34208,13 @@
         <v>94.65617909781101</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>259.7437903115856</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>443.9435090247271</v>
       </c>
       <c r="L42" t="n">
-        <v>593.4871659531818</v>
+        <v>430.0264422644102</v>
       </c>
       <c r="M42" t="n">
         <v>696.597129487967</v>
@@ -34223,16 +34223,16 @@
         <v>715.033982716063</v>
       </c>
       <c r="O42" t="n">
-        <v>654.1164009578284</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
         <v>524.9860796892351</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>350.9392912691327</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>170.6946332877214</v>
       </c>
       <c r="S42" t="n">
         <v>51.06610426486998</v>
@@ -34445,16 +34445,16 @@
         <v>94.65617909781101</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>259.7437903115856</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>443.9435090247271</v>
       </c>
       <c r="L45" t="n">
-        <v>596.9368339155585</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
-        <v>696.597129487967</v>
+        <v>687.50655264223</v>
       </c>
       <c r="N45" t="n">
         <v>715.033982716063</v>
@@ -34463,13 +34463,13 @@
         <v>654.1164009578284</v>
       </c>
       <c r="P45" t="n">
-        <v>521.5364117268584</v>
+        <v>524.9860796892351</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>170.6946332877214</v>
       </c>
       <c r="S45" t="n">
         <v>51.06610426486998</v>
@@ -34702,16 +34702,16 @@
         <v>6.876045741711437</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>6.598225711743297</v>
       </c>
       <c r="N2" t="n">
-        <v>6.598225711743296</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -34778,10 +34778,10 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>6.598225711743296</v>
       </c>
       <c r="L3" t="n">
-        <v>6.598225711743296</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>6.876045741711437</v>
@@ -34857,22 +34857,22 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
         <v>6.876045741711437</v>
       </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
       <c r="N4" t="n">
-        <v>6.598225711743296</v>
+        <v>6.598225711743297</v>
       </c>
       <c r="O4" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="P4" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34933,22 +34933,22 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>36.99361326575547</v>
       </c>
       <c r="K5" t="n">
-        <v>55.47802368145955</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>55.47802368145955</v>
+        <v>36.99361326575547</v>
       </c>
       <c r="M5" t="n">
-        <v>42.45228392952674</v>
+        <v>17.36843693119934</v>
       </c>
       <c r="N5" t="n">
-        <v>41.00876966046366</v>
+        <v>22.30988890275955</v>
       </c>
       <c r="O5" t="n">
-        <v>25.2534574625667</v>
+        <v>32.81420925247102</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
@@ -35018,19 +35018,19 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>37.51104598513467</v>
+        <v>25.33663550103438</v>
       </c>
       <c r="M6" t="n">
-        <v>55.47802368145955</v>
+        <v>36.99361326575547</v>
       </c>
       <c r="N6" t="n">
-        <v>55.47802368145955</v>
+        <v>36.99361326575547</v>
       </c>
       <c r="O6" t="n">
-        <v>50.33418988490479</v>
+        <v>36.99361326575547</v>
       </c>
       <c r="P6" t="n">
-        <v>20.86927518251764</v>
+        <v>10.16228631964</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -35094,22 +35094,22 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>55.47802368145955</v>
+        <v>36.99361326575547</v>
       </c>
       <c r="L7" t="n">
-        <v>53.23648737109754</v>
+        <v>36.99361326575547</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>36.99361326575547</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>35.49892182067446</v>
       </c>
       <c r="O7" t="n">
-        <v>55.47802368145955</v>
+        <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>55.47802368145955</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35331,13 +35331,13 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>75.41988959484684</v>
+        <v>92.63945645062402</v>
       </c>
       <c r="L10" t="n">
         <v>174.6339172880152</v>
       </c>
       <c r="M10" t="n">
-        <v>187.52558716632</v>
+        <v>170.3060203105428</v>
       </c>
       <c r="N10" t="n">
         <v>23.66518529520829</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>219.1319981378853</v>
+        <v>236.5050644409138</v>
       </c>
       <c r="K14" t="n">
-        <v>379.673089629474</v>
+        <v>405.7108125148639</v>
       </c>
       <c r="L14" t="n">
-        <v>508.2925476037104</v>
+        <v>540.5946452559901</v>
       </c>
       <c r="M14" t="n">
-        <v>597.5627274496202</v>
+        <v>633.5050350356719</v>
       </c>
       <c r="N14" t="n">
-        <v>611.8923296162241</v>
+        <v>648.4162213155437</v>
       </c>
       <c r="O14" t="n">
-        <v>564.3226147769356</v>
+        <v>598.8110900129702</v>
       </c>
       <c r="P14" t="n">
-        <v>446.7867998298638</v>
+        <v>476.2219155247445</v>
       </c>
       <c r="Q14" t="n">
-        <v>286.8589397827619</v>
+        <v>308.9634858141458</v>
       </c>
       <c r="R14" t="n">
-        <v>80.59172757420515</v>
+        <v>93.4497770436538</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,31 +35723,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>121.8528699399307</v>
       </c>
       <c r="K15" t="n">
-        <v>269.5250821984463</v>
+        <v>287.2102305658246</v>
       </c>
       <c r="L15" t="n">
-        <v>409.2001800881141</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>497.0697015304345</v>
+        <v>524.8196817347816</v>
       </c>
       <c r="N15" t="n">
-        <v>524.7798442364696</v>
+        <v>553.2642838441824</v>
       </c>
       <c r="O15" t="n">
-        <v>457.6267958375222</v>
+        <v>434.1153679633587</v>
       </c>
       <c r="P15" t="n">
-        <v>347.7574990099193</v>
+        <v>368.6710984237477</v>
       </c>
       <c r="Q15" t="n">
-        <v>5.320797734200805</v>
+        <v>196.0234352003816</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>17.75128708394436</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>56.16969492058774</v>
+        <v>62.66124541086316</v>
       </c>
       <c r="K16" t="n">
-        <v>223.4523833157128</v>
+        <v>234.1199948967491</v>
       </c>
       <c r="L16" t="n">
-        <v>342.0294263609152</v>
+        <v>355.68029645452</v>
       </c>
       <c r="M16" t="n">
-        <v>371.1161377651687</v>
+        <v>385.5090662856546</v>
       </c>
       <c r="N16" t="n">
-        <v>367.781337031692</v>
+        <v>381.8320338817379</v>
       </c>
       <c r="O16" t="n">
-        <v>323.5275156058652</v>
+        <v>336.5056083180682</v>
       </c>
       <c r="P16" t="n">
-        <v>253.0754158285701</v>
+        <v>264.1804161786568</v>
       </c>
       <c r="Q16" t="n">
-        <v>90.93844124981091</v>
+        <v>98.62696787523551</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35963,19 +35963,19 @@
         <v>132.9061636449189</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>306.1020700503681</v>
       </c>
       <c r="L18" t="n">
-        <v>86.0539760215201</v>
+        <v>458.3824541356843</v>
       </c>
       <c r="M18" t="n">
-        <v>554.4630955659486</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>583.6922706327297</v>
       </c>
       <c r="O18" t="n">
-        <v>511.520156513384</v>
+        <v>387.5527039148003</v>
       </c>
       <c r="P18" t="n">
         <v>391.0116722749049</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>101.2059290193558</v>
+        <v>87.6243008907952</v>
       </c>
       <c r="K19" t="n">
-        <v>277.1256801414978</v>
+        <v>263.5440520129371</v>
       </c>
       <c r="L19" t="n">
-        <v>401.8727935817348</v>
+        <v>388.2911654531742</v>
       </c>
       <c r="M19" t="n">
-        <v>432.4942538895098</v>
+        <v>418.9126257609493</v>
       </c>
       <c r="N19" t="n">
-        <v>428.4516387010908</v>
+        <v>414.8700105725301</v>
       </c>
       <c r="O19" t="n">
-        <v>381.9794231908712</v>
+        <v>368.3977950623106</v>
       </c>
       <c r="P19" t="n">
-        <v>307.6533340553059</v>
+        <v>294.0717059267453</v>
       </c>
       <c r="Q19" t="n">
-        <v>138.4502995641581</v>
+        <v>124.8686714355975</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36197,31 +36197,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>132.9061636449189</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>306.1020700503681</v>
       </c>
       <c r="L21" t="n">
-        <v>458.3824541356843</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>554.4630955659486</v>
       </c>
       <c r="N21" t="n">
-        <v>441.7970083053389</v>
+        <v>583.6922706327297</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>511.520156513384</v>
       </c>
       <c r="P21" t="n">
-        <v>391.0116722749049</v>
+        <v>303.8697418909757</v>
       </c>
       <c r="Q21" t="n">
         <v>210.9575171831112</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>25.01512932375746</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36291,7 +36291,7 @@
         <v>428.4516387010908</v>
       </c>
       <c r="O22" t="n">
-        <v>381.9794231908713</v>
+        <v>381.9794231908712</v>
       </c>
       <c r="P22" t="n">
         <v>307.6533340553059</v>
@@ -36373,13 +36373,13 @@
         <v>635.6527791348811</v>
       </c>
       <c r="P23" t="n">
-        <v>507.6654448276931</v>
+        <v>507.6654448276929</v>
       </c>
       <c r="Q23" t="n">
         <v>332.5762668227517</v>
       </c>
       <c r="R23" t="n">
-        <v>107.1851555440247</v>
+        <v>107.1851555440239</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36440,7 +36440,7 @@
         <v>306.1020700503681</v>
       </c>
       <c r="L24" t="n">
-        <v>458.3824541356843</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>554.4630955659486</v>
@@ -36449,16 +36449,16 @@
         <v>583.6922706327297</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>291.4720624845359</v>
       </c>
       <c r="P24" t="n">
         <v>391.0116722749049</v>
       </c>
       <c r="Q24" t="n">
-        <v>69.06225485572025</v>
+        <v>210.9575171831112</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>25.01512932375746</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36528,7 +36528,7 @@
         <v>428.4516387010908</v>
       </c>
       <c r="O25" t="n">
-        <v>381.9794231908713</v>
+        <v>381.9794231908712</v>
       </c>
       <c r="P25" t="n">
         <v>307.6533340553059</v>
@@ -36616,7 +36616,7 @@
         <v>332.5762668227517</v>
       </c>
       <c r="R26" t="n">
-        <v>107.1851555440247</v>
+        <v>107.1851555440239</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,28 +36674,28 @@
         <v>132.9061636449189</v>
       </c>
       <c r="K27" t="n">
-        <v>182.1346174517844</v>
+        <v>306.1020700503681</v>
       </c>
       <c r="L27" t="n">
         <v>458.3824541356843</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>554.4630955659486</v>
       </c>
       <c r="N27" t="n">
         <v>583.6922706327297</v>
       </c>
       <c r="O27" t="n">
-        <v>511.520156513384</v>
+        <v>69.06225485572025</v>
       </c>
       <c r="P27" t="n">
         <v>391.0116722749049</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.9575171831112</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>25.01512932375746</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36765,7 +36765,7 @@
         <v>428.4516387010908</v>
       </c>
       <c r="O28" t="n">
-        <v>381.9794231908713</v>
+        <v>381.9794231908712</v>
       </c>
       <c r="P28" t="n">
         <v>307.6533340553059</v>
@@ -36908,31 +36908,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>132.9061636449189</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>306.1020700503681</v>
       </c>
       <c r="L30" t="n">
         <v>458.3824541356843</v>
       </c>
       <c r="M30" t="n">
-        <v>554.4630955659486</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>583.6922706327297</v>
       </c>
       <c r="O30" t="n">
-        <v>508.0704885510074</v>
+        <v>511.520156513384</v>
       </c>
       <c r="P30" t="n">
         <v>391.0116722749049</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>86.99006458452753</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>25.01512932375746</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37002,7 +37002,7 @@
         <v>428.4516387010908</v>
       </c>
       <c r="O31" t="n">
-        <v>381.9794231908713</v>
+        <v>381.9794231908712</v>
       </c>
       <c r="P31" t="n">
         <v>307.6533340553059</v>
@@ -37148,7 +37148,7 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>306.1020700503681</v>
       </c>
       <c r="L33" t="n">
         <v>458.3824541356843</v>
@@ -37160,16 +37160,16 @@
         <v>583.6922706327297</v>
       </c>
       <c r="O33" t="n">
-        <v>508.0704885510074</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>391.0116722749049</v>
+        <v>357.0074442686755</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>210.9575171831112</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>25.01512932375746</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37227,25 +37227,25 @@
         <v>101.2059290193558</v>
       </c>
       <c r="K34" t="n">
-        <v>277.1256801414978</v>
+        <v>277.1256801414977</v>
       </c>
       <c r="L34" t="n">
-        <v>401.8727935817349</v>
+        <v>401.8727935817348</v>
       </c>
       <c r="M34" t="n">
-        <v>432.4942538895099</v>
+        <v>432.4942538895098</v>
       </c>
       <c r="N34" t="n">
-        <v>428.4516387010908</v>
+        <v>428.4516387010907</v>
       </c>
       <c r="O34" t="n">
-        <v>381.9794231908713</v>
+        <v>381.9794231908712</v>
       </c>
       <c r="P34" t="n">
-        <v>307.6533340553059</v>
+        <v>307.6533340553058</v>
       </c>
       <c r="Q34" t="n">
-        <v>138.4502995641581</v>
+        <v>138.450299564158</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37382,16 +37382,16 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>132.9061636449189</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>306.1020700503681</v>
       </c>
       <c r="L36" t="n">
         <v>458.3824541356843</v>
       </c>
       <c r="M36" t="n">
-        <v>554.4630955659486</v>
+        <v>112.005193908285</v>
       </c>
       <c r="N36" t="n">
         <v>583.6922706327297</v>
@@ -37400,7 +37400,7 @@
         <v>511.520156513384</v>
       </c>
       <c r="P36" t="n">
-        <v>387.5620043125282</v>
+        <v>391.0116722749049</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37470,13 +37470,13 @@
         <v>401.8727935817349</v>
       </c>
       <c r="M37" t="n">
-        <v>432.4942538895099</v>
+        <v>432.4942538895098</v>
       </c>
       <c r="N37" t="n">
         <v>428.4516387010908</v>
       </c>
       <c r="O37" t="n">
-        <v>381.9794231908713</v>
+        <v>381.9794231908712</v>
       </c>
       <c r="P37" t="n">
         <v>307.6533340553059</v>
@@ -37540,31 +37540,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>255.0635279116843</v>
+        <v>255.0635279116844</v>
       </c>
       <c r="K38" t="n">
-        <v>433.5251384721832</v>
+        <v>433.5251384721833</v>
       </c>
       <c r="L38" t="n">
         <v>575.1007761169881</v>
       </c>
       <c r="M38" t="n">
-        <v>671.8997542381571</v>
+        <v>671.8997542381572</v>
       </c>
       <c r="N38" t="n">
-        <v>687.4322072151683</v>
+        <v>687.4322072151685</v>
       </c>
       <c r="O38" t="n">
-        <v>635.6527791348811</v>
+        <v>635.6527791348813</v>
       </c>
       <c r="P38" t="n">
-        <v>507.6654448276931</v>
+        <v>507.6654448276933</v>
       </c>
       <c r="Q38" t="n">
-        <v>332.5762668227517</v>
+        <v>332.5762668227518</v>
       </c>
       <c r="R38" t="n">
-        <v>107.1851555440239</v>
+        <v>107.185155544024</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,31 +37619,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>132.906163644919</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>306.1020700503682</v>
       </c>
       <c r="L39" t="n">
         <v>458.3824541356843</v>
       </c>
       <c r="M39" t="n">
-        <v>554.4630955659486</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>583.6922706327297</v>
+        <v>583.6922706327299</v>
       </c>
       <c r="O39" t="n">
-        <v>511.520156513384</v>
+        <v>387.5527039147998</v>
       </c>
       <c r="P39" t="n">
-        <v>387.5620043125282</v>
+        <v>391.011672274905</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>210.9575171831112</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>25.01512932375749</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37701,19 +37701,19 @@
         <v>101.2059290193558</v>
       </c>
       <c r="K40" t="n">
-        <v>277.1256801414977</v>
+        <v>277.1256801414978</v>
       </c>
       <c r="L40" t="n">
-        <v>401.8727935817348</v>
+        <v>401.8727935817349</v>
       </c>
       <c r="M40" t="n">
-        <v>432.4942538895098</v>
+        <v>432.4942538895099</v>
       </c>
       <c r="N40" t="n">
         <v>428.4516387010908</v>
       </c>
       <c r="O40" t="n">
-        <v>381.9794231908712</v>
+        <v>381.9794231908713</v>
       </c>
       <c r="P40" t="n">
         <v>307.6533340553059</v>
@@ -37856,13 +37856,13 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>132.9061636449189</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>306.1020700503681</v>
       </c>
       <c r="L42" t="n">
-        <v>454.9327861733077</v>
+        <v>291.472062484536</v>
       </c>
       <c r="M42" t="n">
         <v>554.4630955659486</v>
@@ -37871,16 +37871,16 @@
         <v>583.6922706327297</v>
       </c>
       <c r="O42" t="n">
-        <v>511.520156513384</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>391.0116722749049</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>210.9575171831112</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>25.01512932375746</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,28 +37935,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>101.2059290193558</v>
+        <v>101.2059290193557</v>
       </c>
       <c r="K43" t="n">
-        <v>277.1256801414978</v>
+        <v>277.1256801414976</v>
       </c>
       <c r="L43" t="n">
         <v>401.8727935817348</v>
       </c>
       <c r="M43" t="n">
-        <v>432.4942538895098</v>
+        <v>432.4942538895097</v>
       </c>
       <c r="N43" t="n">
-        <v>428.4516387010908</v>
+        <v>428.4516387010906</v>
       </c>
       <c r="O43" t="n">
-        <v>381.9794231908712</v>
+        <v>381.9794231908711</v>
       </c>
       <c r="P43" t="n">
-        <v>307.6533340553059</v>
+        <v>307.6533340553058</v>
       </c>
       <c r="Q43" t="n">
-        <v>138.4502995641581</v>
+        <v>138.4502995641579</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38093,16 +38093,16 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>132.9061636449189</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>306.1020700503681</v>
       </c>
       <c r="L45" t="n">
-        <v>458.3824541356843</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>554.4630955659486</v>
+        <v>545.3725187202116</v>
       </c>
       <c r="N45" t="n">
         <v>583.6922706327297</v>
@@ -38111,13 +38111,13 @@
         <v>511.520156513384</v>
       </c>
       <c r="P45" t="n">
-        <v>387.5620043125282</v>
+        <v>391.0116722749049</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>25.01512932375746</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,28 +38172,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>101.2059290193558</v>
+        <v>101.2059290193557</v>
       </c>
       <c r="K46" t="n">
-        <v>277.1256801414978</v>
+        <v>277.1256801414976</v>
       </c>
       <c r="L46" t="n">
         <v>401.8727935817348</v>
       </c>
       <c r="M46" t="n">
-        <v>432.4942538895098</v>
+        <v>432.4942538895097</v>
       </c>
       <c r="N46" t="n">
-        <v>428.4516387010908</v>
+        <v>428.4516387010906</v>
       </c>
       <c r="O46" t="n">
-        <v>381.9794231908712</v>
+        <v>381.9794231908711</v>
       </c>
       <c r="P46" t="n">
-        <v>307.6533340553059</v>
+        <v>307.6533340553058</v>
       </c>
       <c r="Q46" t="n">
-        <v>138.4502995641581</v>
+        <v>138.4502995641579</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
